--- a/outputs/house_democrats_chamber_votes.xlsx
+++ b/outputs/house_democrats_chamber_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,94 +585,94 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.83643122676579928</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="D2">
-        <v>0.77573529411764708</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="E2">
-        <v>0.81439393939393945</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="F2">
-        <v>0.78113207547169816</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="G2">
-        <v>0.93090909090909091</v>
+        <v>0.87962962962962965</v>
       </c>
       <c r="H2">
-        <v>0.88802488335925345</v>
+        <v>0.81553398058252424</v>
       </c>
       <c r="I2">
-        <v>0.83283582089552244</v>
+        <v>0.69953051643192488</v>
       </c>
       <c r="J2">
-        <v>0.94182389937106914</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="K2">
-        <v>0.93591905564924116</v>
+        <v>0.88</v>
       </c>
       <c r="L2">
-        <v>0.88288288288288286</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="M2">
-        <v>0.85604900459418065</v>
+        <v>0.75480769230769229</v>
       </c>
       <c r="N2">
-        <v>0.87164179104477613</v>
+        <v>0.76605504587155959</v>
       </c>
       <c r="O2">
-        <v>0.90569105691056906</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="P2">
-        <v>0.75370919881305642</v>
+        <v>0.50230414746543783</v>
       </c>
       <c r="Q2">
-        <v>0.90311418685121103</v>
+        <v>0.86082474226804129</v>
       </c>
       <c r="R2">
-        <v>0.94700854700854697</v>
+        <v>0.91052631578947374</v>
       </c>
       <c r="S2">
-        <v>0.75161290322580643</v>
+        <v>0.57435897435897432</v>
       </c>
       <c r="T2">
-        <v>0.92621664050235475</v>
+        <v>0.87735849056603776</v>
       </c>
       <c r="U2">
-        <v>0.88132911392405067</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="V2">
-        <v>0.85964912280701755</v>
+        <v>0.79090909090909089</v>
       </c>
       <c r="W2">
-        <v>0.94615384615384612</v>
+        <v>0.91919191919191923</v>
       </c>
       <c r="X2">
-        <v>0.91754122938530736</v>
+        <v>0.85915492957746475</v>
       </c>
       <c r="Y2">
-        <v>0.8571428571428571</v>
+        <v>0.71508379888268159</v>
       </c>
       <c r="Z2">
-        <v>0.83054003724394787</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>0.91588785046728971</v>
       </c>
       <c r="AB2">
-        <v>0.81101190476190477</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="AC2">
-        <v>0.95297805642633227</v>
+        <v>0.92270531400966183</v>
       </c>
       <c r="AD2">
-        <v>0.70178571428571423</v>
+        <v>0.4885057471264368</v>
       </c>
       <c r="AE2">
-        <v>0.8262150220913107</v>
+        <v>0.66210045662100458</v>
       </c>
       <c r="AF2">
-        <v>0.90035587188612098</v>
+        <v>0.83783783783783783</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -680,97 +680,97 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83643122676579928</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.88530465949820791</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="E3">
-        <v>0.89818181818181819</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F3">
-        <v>0.93818181818181823</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="G3">
-        <v>0.84210526315789469</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="H3">
-        <v>0.82078853046594979</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="I3">
-        <v>0.85</v>
+        <v>0.82242990654205606</v>
       </c>
       <c r="J3">
-        <v>0.82258064516129037</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="K3">
-        <v>0.79457364341085268</v>
+        <v>0.66346153846153844</v>
       </c>
       <c r="L3">
-        <v>0.80935251798561147</v>
+        <v>0.67592592592592593</v>
       </c>
       <c r="M3">
-        <v>0.84558823529411764</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
-        <v>0.84154929577464788</v>
+        <v>0.73148148148148151</v>
       </c>
       <c r="O3">
-        <v>0.83461538461538465</v>
+        <v>0.74</v>
       </c>
       <c r="P3">
-        <v>0.79020979020979021</v>
+        <v>0.69724770642201839</v>
       </c>
       <c r="Q3">
-        <v>0.81060606060606055</v>
+        <v>0.68</v>
       </c>
       <c r="R3">
-        <v>0.83720930232558144</v>
+        <v>0.76767676767676762</v>
       </c>
       <c r="S3">
-        <v>0.77253218884120167</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="T3">
-        <v>0.84558823529411764</v>
+        <v>0.78504672897196259</v>
       </c>
       <c r="U3">
-        <v>0.82330827067669177</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="V3">
-        <v>0.84775086505190311</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="W3">
-        <v>0.81784386617100369</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="X3">
-        <v>0.84587813620071683</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="Y3">
-        <v>0.81889763779527558</v>
+        <v>0.6875</v>
       </c>
       <c r="Z3">
-        <v>0.8422939068100358</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="AA3">
-        <v>0.82746478873239437</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="AB3">
-        <v>0.87804878048780488</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="AC3">
-        <v>0.82051282051282048</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="AD3">
-        <v>0.82272727272727275</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="AE3">
-        <v>0.8581314878892734</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="AF3">
-        <v>0.87152777777777779</v>
+        <v>0.82727272727272727</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -778,97 +778,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.77573529411764708</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="C4">
-        <v>0.88530465949820791</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.88</v>
+        <v>0.85321100917431192</v>
       </c>
       <c r="F4">
-        <v>0.90476190476190477</v>
+        <v>0.88288288288288286</v>
       </c>
       <c r="G4">
-        <v>0.78245614035087718</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H4">
-        <v>0.77857142857142858</v>
+        <v>0.65137614678899081</v>
       </c>
       <c r="I4">
-        <v>0.8035714285714286</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="J4">
-        <v>0.75889328063241102</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="K4">
-        <v>0.72972972972972971</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="L4">
-        <v>0.75899280575539574</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="M4">
-        <v>0.80442804428044279</v>
+        <v>0.73873873873873874</v>
       </c>
       <c r="N4">
-        <v>0.78048780487804881</v>
+        <v>0.66086956521739126</v>
       </c>
       <c r="O4">
-        <v>0.77480916030534353</v>
+        <v>0.66981132075471694</v>
       </c>
       <c r="P4">
-        <v>0.81184668989547037</v>
+        <v>0.74561403508771928</v>
       </c>
       <c r="Q4">
-        <v>0.80769230769230771</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="R4">
-        <v>0.80078125</v>
+        <v>0.68932038834951459</v>
       </c>
       <c r="S4">
-        <v>0.7531380753138075</v>
+        <v>0.62886597938144329</v>
       </c>
       <c r="T4">
-        <v>0.81751824817518248</v>
+        <v>0.74561403508771928</v>
       </c>
       <c r="U4">
-        <v>0.80297397769516732</v>
+        <v>0.70909090909090911</v>
       </c>
       <c r="V4">
-        <v>0.81506849315068497</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="W4">
-        <v>0.76119402985074625</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="X4">
-        <v>0.79078014184397161</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="Y4">
-        <v>0.7976653696498055</v>
+        <v>0.70873786407766992</v>
       </c>
       <c r="Z4">
-        <v>0.83571428571428574</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="AA4">
-        <v>0.75789473684210529</v>
+        <v>0.66086956521739126</v>
       </c>
       <c r="AB4">
-        <v>0.81379310344827582</v>
+        <v>0.76068376068376065</v>
       </c>
       <c r="AC4">
+        <v>0.65420560747663548</v>
+      </c>
+      <c r="AD4">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AE4">
+        <v>0.80508474576271183</v>
+      </c>
+      <c r="AF4">
         <v>0.76923076923076927</v>
-      </c>
-      <c r="AD4">
-        <v>0.7991071428571429</v>
-      </c>
-      <c r="AE4">
-        <v>0.84192439862542956</v>
-      </c>
-      <c r="AF4">
-        <v>0.82817869415807566</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -876,97 +876,97 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.81439393939393945</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C5">
-        <v>0.89818181818181819</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
-        <v>0.88</v>
+        <v>0.85321100917431192</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.88805970149253732</v>
+        <v>0.83495145631067957</v>
       </c>
       <c r="G5">
-        <v>0.84341637010676151</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="H5">
-        <v>0.82481751824817517</v>
+        <v>0.68</v>
       </c>
       <c r="I5">
-        <v>0.84671532846715325</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="J5">
-        <v>0.80161943319838058</v>
+        <v>0.65625</v>
       </c>
       <c r="K5">
-        <v>0.78740157480314965</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="L5">
-        <v>0.80586080586080588</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="M5">
-        <v>0.83458646616541354</v>
+        <v>0.71844660194174759</v>
       </c>
       <c r="N5">
-        <v>0.7978723404255319</v>
+        <v>0.66355140186915884</v>
       </c>
       <c r="O5">
-        <v>0.80155642023346307</v>
+        <v>0.65979381443298968</v>
       </c>
       <c r="P5">
-        <v>0.80565371024734977</v>
+        <v>0.68224299065420557</v>
       </c>
       <c r="Q5">
-        <v>0.83783783783783783</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="R5">
-        <v>0.80859375</v>
+        <v>0.70707070707070707</v>
       </c>
       <c r="S5">
-        <v>0.80519480519480524</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="T5">
-        <v>0.82397003745318353</v>
+        <v>0.72115384615384615</v>
       </c>
       <c r="U5">
-        <v>0.82954545454545459</v>
+        <v>0.71287128712871284</v>
       </c>
       <c r="V5">
-        <v>0.81754385964912279</v>
+        <v>0.73148148148148151</v>
       </c>
       <c r="W5">
-        <v>0.8098859315589354</v>
+        <v>0.67032967032967028</v>
       </c>
       <c r="X5">
-        <v>0.81090909090909091</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Y5">
-        <v>0.82470119521912355</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Z5">
-        <v>0.84727272727272729</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="AA5">
-        <v>0.79359430604982206</v>
+        <v>0.70754716981132071</v>
       </c>
       <c r="AB5">
-        <v>0.8409893992932862</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="AC5">
-        <v>0.80597014925373134</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="AD5">
-        <v>0.80365296803652964</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="AE5">
-        <v>0.83508771929824566</v>
+        <v>0.74311926605504586</v>
       </c>
       <c r="AF5">
-        <v>0.8380281690140845</v>
+        <v>0.74766355140186913</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -974,97 +974,97 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.78113207547169816</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="C6">
-        <v>0.93818181818181823</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="D6">
-        <v>0.90476190476190477</v>
+        <v>0.88288288288288286</v>
       </c>
       <c r="E6">
-        <v>0.88805970149253732</v>
+        <v>0.83495145631067957</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.79783393501805056</v>
+        <v>0.69158878504672894</v>
       </c>
       <c r="H6">
-        <v>0.79487179487179482</v>
+        <v>0.67961165048543692</v>
       </c>
       <c r="I6">
-        <v>0.84191176470588236</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="J6">
-        <v>0.78189300411522633</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="K6">
-        <v>0.76</v>
+        <v>0.62376237623762376</v>
       </c>
       <c r="L6">
-        <v>0.77037037037037037</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="M6">
-        <v>0.81273408239700373</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="N6">
-        <v>0.81785714285714284</v>
+        <v>0.69724770642201839</v>
       </c>
       <c r="O6">
-        <v>0.79133858267716539</v>
+        <v>0.65656565656565657</v>
       </c>
       <c r="P6">
-        <v>0.82437275985663083</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="Q6">
-        <v>0.79069767441860461</v>
+        <v>0.64948453608247425</v>
       </c>
       <c r="R6">
-        <v>0.80158730158730163</v>
+        <v>0.68367346938775508</v>
       </c>
       <c r="S6">
-        <v>0.78165938864628826</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="T6">
-        <v>0.83773584905660381</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="U6">
-        <v>0.80608365019011408</v>
+        <v>0.69523809523809521</v>
       </c>
       <c r="V6">
-        <v>0.79577464788732399</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="W6">
-        <v>0.77394636015325668</v>
+        <v>0.62365591397849462</v>
       </c>
       <c r="X6">
-        <v>0.8029197080291971</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>0.68041237113402064</v>
       </c>
       <c r="Z6">
-        <v>0.8302583025830258</v>
+        <v>0.71153846153846156</v>
       </c>
       <c r="AA6">
-        <v>0.78700361010830322</v>
+        <v>0.67592592592592593</v>
       </c>
       <c r="AB6">
-        <v>0.84397163120567376</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="AC6">
-        <v>0.78195488721804507</v>
+        <v>0.65346534653465349</v>
       </c>
       <c r="AD6">
-        <v>0.83870967741935487</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="AE6">
-        <v>0.83392226148409898</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="AF6">
-        <v>0.83098591549295775</v>
+        <v>0.76576576576576572</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1072,97 +1072,97 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.93090909090909091</v>
+        <v>0.87962962962962965</v>
       </c>
       <c r="C7">
-        <v>0.84210526315789469</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="D7">
-        <v>0.78245614035087718</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E7">
-        <v>0.84341637010676151</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="F7">
-        <v>0.79783393501805056</v>
+        <v>0.69158878504672894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9233449477351916</v>
+        <v>0.87962962962962965</v>
       </c>
       <c r="I7">
+        <v>0.70642201834862384</v>
+      </c>
+      <c r="J7">
+        <v>0.85</v>
+      </c>
+      <c r="K7">
+        <v>0.80373831775700932</v>
+      </c>
+      <c r="L7">
+        <v>0.77477477477477474</v>
+      </c>
+      <c r="M7">
+        <v>0.76635514018691586</v>
+      </c>
+      <c r="N7">
+        <v>0.73873873873873874</v>
+      </c>
+      <c r="O7">
         <v>0.80769230769230771</v>
       </c>
-      <c r="J7">
-        <v>0.91015625</v>
-      </c>
-      <c r="K7">
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="L7">
-        <v>0.85964912280701755</v>
-      </c>
-      <c r="M7">
-        <v>0.84727272727272729</v>
-      </c>
-      <c r="N7">
-        <v>0.84879725085910651</v>
-      </c>
-      <c r="O7">
-        <v>0.88475836431226762</v>
-      </c>
       <c r="P7">
-        <v>0.76530612244897955</v>
+        <v>0.61061946902654862</v>
       </c>
       <c r="Q7">
-        <v>0.85227272727272729</v>
+        <v>0.8</v>
       </c>
       <c r="R7">
-        <v>0.94339622641509435</v>
+        <v>0.94174757281553401</v>
       </c>
       <c r="S7">
-        <v>0.71784232365145229</v>
+        <v>0.58762886597938147</v>
       </c>
       <c r="T7">
-        <v>0.87725631768953072</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="U7">
-        <v>0.87912087912087911</v>
+        <v>0.78301886792452835</v>
       </c>
       <c r="V7">
-        <v>0.8716216216216216</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="W7">
-        <v>0.93840579710144922</v>
+        <v>0.90816326530612246</v>
       </c>
       <c r="X7">
-        <v>0.91258741258741261</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="Y7">
-        <v>0.80916030534351147</v>
+        <v>0.7</v>
       </c>
       <c r="Z7">
-        <v>0.80701754385964908</v>
+        <v>0.71296296296296291</v>
       </c>
       <c r="AA7">
-        <v>0.90443686006825941</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="AB7">
-        <v>0.79251700680272108</v>
+        <v>0.66371681415929207</v>
       </c>
       <c r="AC7">
-        <v>0.92553191489361697</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="AD7">
-        <v>0.74008810572687223</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="AE7">
-        <v>0.82770270270270274</v>
+        <v>0.71304347826086956</v>
       </c>
       <c r="AF7">
-        <v>0.88813559322033897</v>
+        <v>0.83185840707964598</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1170,97 +1170,97 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.88802488335925345</v>
+        <v>0.81553398058252424</v>
       </c>
       <c r="C8">
-        <v>0.82078853046594979</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="D8">
-        <v>0.77857142857142858</v>
+        <v>0.65137614678899081</v>
       </c>
       <c r="E8">
-        <v>0.82481751824817517</v>
+        <v>0.68</v>
       </c>
       <c r="F8">
-        <v>0.79487179487179482</v>
+        <v>0.67961165048543692</v>
       </c>
       <c r="G8">
-        <v>0.9233449477351916</v>
+        <v>0.87962962962962965</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.875</v>
+        <v>0.76146788990825687</v>
       </c>
       <c r="J8">
-        <v>0.88580246913580252</v>
+        <v>0.79512195121951224</v>
       </c>
       <c r="K8">
-        <v>0.90406504065040649</v>
+        <v>0.82038834951456308</v>
       </c>
       <c r="L8">
-        <v>0.87663280116110309</v>
+        <v>0.76818181818181819</v>
       </c>
       <c r="M8">
-        <v>0.87833827893175076</v>
+        <v>0.79342723004694837</v>
       </c>
       <c r="N8">
-        <v>0.8440233236151603</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O8">
-        <v>0.8817034700315457</v>
+        <v>0.79104477611940294</v>
       </c>
       <c r="P8">
-        <v>0.80863309352517987</v>
+        <v>0.60538116591928248</v>
       </c>
       <c r="Q8">
-        <v>0.85929648241206025</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="R8">
-        <v>0.88480801335559267</v>
+        <v>0.82233502538071068</v>
       </c>
       <c r="S8">
-        <v>0.79073482428115016</v>
+        <v>0.63316582914572861</v>
       </c>
       <c r="T8">
-        <v>0.88514548238897395</v>
+        <v>0.78504672897196259</v>
       </c>
       <c r="U8">
-        <v>0.88786482334869432</v>
+        <v>0.79342723004694837</v>
       </c>
       <c r="V8">
-        <v>0.83357041251778097</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="W8">
-        <v>0.89004457652303115</v>
+        <v>0.79024390243902443</v>
       </c>
       <c r="X8">
-        <v>0.88905109489051093</v>
+        <v>0.78240740740740744</v>
       </c>
       <c r="Y8">
-        <v>0.85248713550600341</v>
+        <v>0.70108695652173914</v>
       </c>
       <c r="Z8">
-        <v>0.83392226148409898</v>
+        <v>0.72549019607843135</v>
       </c>
       <c r="AA8">
-        <v>0.87900874635568516</v>
+        <v>0.80180180180180183</v>
       </c>
       <c r="AB8">
-        <v>0.84515195369030394</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="AC8">
-        <v>0.8952959028831563</v>
+        <v>0.82464454976303314</v>
       </c>
       <c r="AD8">
-        <v>0.74520069808027922</v>
+        <v>0.54802259887005644</v>
       </c>
       <c r="AE8">
-        <v>0.85530085959885382</v>
+        <v>0.71300448430493268</v>
       </c>
       <c r="AF8">
-        <v>0.87586206896551722</v>
+        <v>0.79629629629629628</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1268,97 +1268,97 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.83283582089552244</v>
+        <v>0.69953051643192488</v>
       </c>
       <c r="C9">
-        <v>0.85</v>
+        <v>0.82242990654205606</v>
       </c>
       <c r="D9">
-        <v>0.8035714285714286</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="E9">
-        <v>0.84671532846715325</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="F9">
-        <v>0.84191176470588236</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="G9">
-        <v>0.80769230769230771</v>
+        <v>0.70642201834862384</v>
       </c>
       <c r="H9">
-        <v>0.875</v>
+        <v>0.76146788990825687</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.83899556868537661</v>
+        <v>0.68691588785046731</v>
       </c>
       <c r="K9">
-        <v>0.86520376175548586</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="L9">
-        <v>0.8541374474053296</v>
+        <v>0.74458874458874458</v>
       </c>
       <c r="M9">
-        <v>0.84870317002881845</v>
+        <v>0.74311926605504586</v>
       </c>
       <c r="N9">
-        <v>0.8497191011235955</v>
+        <v>0.75109170305676853</v>
       </c>
       <c r="O9">
-        <v>0.84274809160305342</v>
+        <v>0.70531400966183577</v>
       </c>
       <c r="P9">
-        <v>0.82869080779944293</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="Q9">
-        <v>0.81596091205211729</v>
+        <v>0.68159203980099503</v>
       </c>
       <c r="R9">
-        <v>0.84006462035541196</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="S9">
-        <v>0.80981595092024539</v>
+        <v>0.63592233009708743</v>
       </c>
       <c r="T9">
-        <v>0.85163204747774479</v>
+        <v>0.72072072072072069</v>
       </c>
       <c r="U9">
-        <v>0.86329866270430911</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="V9">
-        <v>0.8168044077134986</v>
+        <v>0.70995670995671001</v>
       </c>
       <c r="W9">
-        <v>0.84097421203438394</v>
+        <v>0.71028037383177567</v>
       </c>
       <c r="X9">
-        <v>0.84626234132581102</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y9">
-        <v>0.84628378378378377</v>
+        <v>0.69680851063829785</v>
       </c>
       <c r="Z9">
-        <v>0.86010362694300513</v>
+        <v>0.74407582938388628</v>
       </c>
       <c r="AA9">
-        <v>0.828125</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="AB9">
-        <v>0.8601398601398601</v>
+        <v>0.78602620087336239</v>
       </c>
       <c r="AC9">
-        <v>0.8435672514619883</v>
+        <v>0.72398190045248867</v>
       </c>
       <c r="AD9">
-        <v>0.7912457912457912</v>
+        <v>0.64324324324324322</v>
       </c>
       <c r="AE9">
-        <v>0.85159500693481271</v>
+        <v>0.70869565217391306</v>
       </c>
       <c r="AF9">
-        <v>0.81379310344827582</v>
+        <v>0.70909090909090911</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1366,97 +1366,97 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.94182389937106914</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C10">
-        <v>0.82258064516129037</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10">
-        <v>0.75889328063241102</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="E10">
-        <v>0.80161943319838058</v>
+        <v>0.65625</v>
       </c>
       <c r="F10">
-        <v>0.78189300411522633</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G10">
-        <v>0.91015625</v>
+        <v>0.85</v>
       </c>
       <c r="H10">
-        <v>0.88580246913580252</v>
+        <v>0.79512195121951224</v>
       </c>
       <c r="I10">
-        <v>0.83899556868537661</v>
+        <v>0.68691588785046731</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.93023255813953487</v>
+        <v>0.86432160804020097</v>
       </c>
       <c r="L10">
-        <v>0.90207715133531152</v>
+        <v>0.82488479262672809</v>
       </c>
       <c r="M10">
-        <v>0.84743202416918428</v>
+        <v>0.70283018867924529</v>
       </c>
       <c r="N10">
-        <v>0.85756240822320118</v>
+        <v>0.7366071428571429</v>
       </c>
       <c r="O10">
-        <v>0.90109890109890112</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="P10">
-        <v>0.77891654465592974</v>
+        <v>0.5339366515837104</v>
       </c>
       <c r="Q10">
-        <v>0.87521367521367521</v>
+        <v>0.80512820512820515</v>
       </c>
       <c r="R10">
-        <v>0.92517006802721091</v>
+        <v>0.859375</v>
       </c>
       <c r="S10">
-        <v>0.75396825396825395</v>
+        <v>0.57635467980295563</v>
       </c>
       <c r="T10">
-        <v>0.92031249999999998</v>
+        <v>0.85116279069767442</v>
       </c>
       <c r="U10">
-        <v>0.86895475819032764</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="V10">
-        <v>0.84393063583815031</v>
+        <v>0.73094170403587444</v>
       </c>
       <c r="W10">
-        <v>0.92514970059880242</v>
+        <v>0.87081339712918659</v>
       </c>
       <c r="X10">
-        <v>0.90909090909090906</v>
+        <v>0.80821917808219179</v>
       </c>
       <c r="Y10">
-        <v>0.83275862068965523</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="Z10">
-        <v>0.8306010928961749</v>
+        <v>0.7277227722772277</v>
       </c>
       <c r="AA10">
-        <v>0.92365269461077848</v>
+        <v>0.87155963302752293</v>
       </c>
       <c r="AB10">
-        <v>0.82672540381791482</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AC10">
-        <v>0.93055555555555558</v>
+        <v>0.88516746411483249</v>
       </c>
       <c r="AD10">
-        <v>0.70350877192982453</v>
+        <v>0.5</v>
       </c>
       <c r="AE10">
-        <v>0.84133915574963614</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="AF10">
-        <v>0.88505747126436785</v>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1464,97 +1464,97 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.93591905564924116</v>
+        <v>0.88</v>
       </c>
       <c r="C11">
-        <v>0.79457364341085268</v>
+        <v>0.66346153846153844</v>
       </c>
       <c r="D11">
-        <v>0.72972972972972971</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="E11">
-        <v>0.78740157480314965</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F11">
-        <v>0.76</v>
+        <v>0.62376237623762376</v>
       </c>
       <c r="G11">
-        <v>0.89473684210526316</v>
+        <v>0.80373831775700932</v>
       </c>
       <c r="H11">
-        <v>0.90406504065040649</v>
+        <v>0.82038834951456308</v>
       </c>
       <c r="I11">
-        <v>0.86520376175548586</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="J11">
-        <v>0.93023255813953487</v>
+        <v>0.86432160804020097</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.89633173843700165</v>
+        <v>0.82159624413145538</v>
       </c>
       <c r="M11">
-        <v>0.84991843393148447</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="N11">
-        <v>0.85284810126582278</v>
+        <v>0.73239436619718312</v>
       </c>
       <c r="O11">
-        <v>0.89879931389365353</v>
+        <v>0.81025641025641026</v>
       </c>
       <c r="P11">
-        <v>0.76645768025078365</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="Q11">
-        <v>0.8613678373382625</v>
+        <v>0.78191489361702127</v>
       </c>
       <c r="R11">
-        <v>0.90892857142857142</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="S11">
-        <v>0.78397212543554007</v>
+        <v>0.62176165803108807</v>
       </c>
       <c r="T11">
-        <v>0.92066115702479334</v>
+        <v>0.86057692307692313</v>
       </c>
       <c r="U11">
-        <v>0.8737373737373737</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="V11">
-        <v>0.84292379471228618</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="W11">
-        <v>0.92032520325203249</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="X11">
-        <v>0.90779014308426076</v>
+        <v>0.81428571428571428</v>
       </c>
       <c r="Y11">
-        <v>0.84090909090909094</v>
+        <v>0.71022727272727271</v>
       </c>
       <c r="Z11">
-        <v>0.84220532319391639</v>
+        <v>0.73737373737373735</v>
       </c>
       <c r="AA11">
-        <v>0.92185007974481659</v>
+        <v>0.89302325581395348</v>
       </c>
       <c r="AB11">
-        <v>0.82677165354330706</v>
+        <v>0.68544600938967137</v>
       </c>
       <c r="AC11">
-        <v>0.92269736842105265</v>
+        <v>0.87745098039215685</v>
       </c>
       <c r="AD11">
-        <v>0.71701720841300187</v>
+        <v>0.50289017341040465</v>
       </c>
       <c r="AE11">
-        <v>0.82758620689655171</v>
+        <v>0.66046511627906979</v>
       </c>
       <c r="AF11">
-        <v>0.84701492537313428</v>
+        <v>0.76635514018691586</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1562,97 +1562,97 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.88288288288288286</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="C12">
-        <v>0.80935251798561147</v>
+        <v>0.67592592592592593</v>
       </c>
       <c r="D12">
-        <v>0.75899280575539574</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="E12">
-        <v>0.80586080586080588</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="F12">
-        <v>0.77037037037037037</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="G12">
-        <v>0.85964912280701755</v>
+        <v>0.77477477477477474</v>
       </c>
       <c r="H12">
-        <v>0.87663280116110309</v>
+        <v>0.76818181818181819</v>
       </c>
       <c r="I12">
-        <v>0.8541374474053296</v>
+        <v>0.74458874458874458</v>
       </c>
       <c r="J12">
-        <v>0.90207715133531152</v>
+        <v>0.82488479262672809</v>
       </c>
       <c r="K12">
-        <v>0.89633173843700165</v>
+        <v>0.82159624413145538</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8647482014388489</v>
+        <v>0.73303167420814475</v>
       </c>
       <c r="N12">
-        <v>0.8567415730337079</v>
+        <v>0.74568965517241381</v>
       </c>
       <c r="O12">
-        <v>0.88532110091743121</v>
+        <v>0.74881516587677721</v>
       </c>
       <c r="P12">
-        <v>0.79694019471488176</v>
+        <v>0.57081545064377681</v>
       </c>
       <c r="Q12">
-        <v>0.85575364667747167</v>
+        <v>0.74146341463414633</v>
       </c>
       <c r="R12">
-        <v>0.86970684039087953</v>
+        <v>0.76847290640394084</v>
       </c>
       <c r="S12">
-        <v>0.77846153846153843</v>
+        <v>0.62200956937799046</v>
       </c>
       <c r="T12">
-        <v>0.87928464977645304</v>
+        <v>0.76</v>
       </c>
       <c r="U12">
-        <v>0.86775631500742945</v>
+        <v>0.76576576576576572</v>
       </c>
       <c r="V12">
-        <v>0.84044016506189823</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="W12">
-        <v>0.89255014326647564</v>
+        <v>0.8018433179723502</v>
       </c>
       <c r="X12">
-        <v>0.87183098591549291</v>
+        <v>0.74008810572687223</v>
       </c>
       <c r="Y12">
-        <v>0.83966942148760326</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="Z12">
-        <v>0.82055749128919864</v>
+        <v>0.7009345794392523</v>
       </c>
       <c r="AA12">
-        <v>0.86382978723404258</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="AB12">
-        <v>0.8477653631284916</v>
+        <v>0.74568965517241381</v>
       </c>
       <c r="AC12">
-        <v>0.88338192419825068</v>
+        <v>0.8</v>
       </c>
       <c r="AD12">
-        <v>0.73613445378151265</v>
+        <v>0.52659574468085102</v>
       </c>
       <c r="AE12">
-        <v>0.85062240663900412</v>
+        <v>0.69658119658119655</v>
       </c>
       <c r="AF12">
-        <v>0.87152777777777779</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1660,97 +1660,97 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.85604900459418065</v>
+        <v>0.75480769230769229</v>
       </c>
       <c r="C13">
-        <v>0.84558823529411764</v>
+        <v>0.75</v>
       </c>
       <c r="D13">
-        <v>0.80442804428044279</v>
+        <v>0.73873873873873874</v>
       </c>
       <c r="E13">
-        <v>0.83458646616541354</v>
+        <v>0.71844660194174759</v>
       </c>
       <c r="F13">
-        <v>0.81273408239700373</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="G13">
-        <v>0.84727272727272729</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="H13">
-        <v>0.87833827893175076</v>
+        <v>0.79342723004694837</v>
       </c>
       <c r="I13">
-        <v>0.84870317002881845</v>
+        <v>0.74311926605504586</v>
       </c>
       <c r="J13">
-        <v>0.84743202416918428</v>
+        <v>0.70283018867924529</v>
       </c>
       <c r="K13">
-        <v>0.84991843393148447</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="L13">
-        <v>0.8647482014388489</v>
+        <v>0.73303167420814475</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.86571428571428577</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="O13">
-        <v>0.86377708978328172</v>
+        <v>0.77669902912621358</v>
       </c>
       <c r="P13">
-        <v>0.82909604519774016</v>
+        <v>0.67841409691629961</v>
       </c>
       <c r="Q13">
-        <v>0.84132231404958679</v>
+        <v>0.74242424242424243</v>
       </c>
       <c r="R13">
-        <v>0.86</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="S13">
-        <v>0.78897637795275588</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="T13">
-        <v>0.86102719033232633</v>
+        <v>0.75113122171945701</v>
       </c>
       <c r="U13">
-        <v>0.84766214177978882</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="V13">
-        <v>0.83496503496503494</v>
+        <v>0.75438596491228072</v>
       </c>
       <c r="W13">
-        <v>0.85043988269794724</v>
+        <v>0.74271844660194175</v>
       </c>
       <c r="X13">
-        <v>0.86142857142857143</v>
+        <v>0.75225225225225223</v>
       </c>
       <c r="Y13">
-        <v>0.84931506849315064</v>
+        <v>0.71657754010695185</v>
       </c>
       <c r="Z13">
-        <v>0.80106571936056836</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="AA13">
-        <v>0.83646888567293776</v>
+        <v>0.73542600896860988</v>
       </c>
       <c r="AB13">
-        <v>0.85775248933143666</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="AC13">
-        <v>0.84313725490196079</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="AD13">
-        <v>0.79180887372013653</v>
+        <v>0.67597765363128492</v>
       </c>
       <c r="AE13">
-        <v>0.88888888888888884</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="AF13">
-        <v>0.87188612099644125</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1758,97 +1758,97 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.87164179104477613</v>
+        <v>0.76605504587155959</v>
       </c>
       <c r="C14">
-        <v>0.84154929577464788</v>
+        <v>0.73148148148148151</v>
       </c>
       <c r="D14">
-        <v>0.78048780487804881</v>
+        <v>0.66086956521739126</v>
       </c>
       <c r="E14">
-        <v>0.7978723404255319</v>
+        <v>0.66355140186915884</v>
       </c>
       <c r="F14">
-        <v>0.81785714285714284</v>
+        <v>0.69724770642201839</v>
       </c>
       <c r="G14">
-        <v>0.84879725085910651</v>
+        <v>0.73873873873873874</v>
       </c>
       <c r="H14">
-        <v>0.8440233236151603</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="I14">
-        <v>0.8497191011235955</v>
+        <v>0.75109170305676853</v>
       </c>
       <c r="J14">
-        <v>0.85756240822320118</v>
+        <v>0.7366071428571429</v>
       </c>
       <c r="K14">
-        <v>0.85284810126582278</v>
+        <v>0.73239436619718312</v>
       </c>
       <c r="L14">
-        <v>0.8567415730337079</v>
+        <v>0.74568965517241381</v>
       </c>
       <c r="M14">
-        <v>0.86571428571428577</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.86170212765957444</v>
+        <v>0.7429906542056075</v>
       </c>
       <c r="P14">
-        <v>0.81527777777777777</v>
+        <v>0.64529914529914534</v>
       </c>
       <c r="Q14">
-        <v>0.84219001610305955</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="R14">
-        <v>0.8564516129032258</v>
+        <v>0.75242718446601942</v>
       </c>
       <c r="S14">
-        <v>0.76380368098159512</v>
+        <v>0.589622641509434</v>
       </c>
       <c r="T14">
-        <v>0.85777777777777775</v>
+        <v>0.73799126637554591</v>
       </c>
       <c r="U14">
-        <v>0.85419734904270983</v>
+        <v>0.76651982378854622</v>
       </c>
       <c r="V14">
-        <v>0.83584131326949385</v>
+        <v>0.73109243697478987</v>
       </c>
       <c r="W14">
-        <v>0.86389684813753587</v>
+        <v>0.74537037037037035</v>
       </c>
       <c r="X14">
-        <v>0.86414565826330536</v>
+        <v>0.74458874458874458</v>
       </c>
       <c r="Y14">
-        <v>0.82747068676716917</v>
+        <v>0.68717948717948718</v>
       </c>
       <c r="Z14">
-        <v>0.81615120274914088</v>
+        <v>0.72558139534883725</v>
       </c>
       <c r="AA14">
-        <v>0.85269121813031157</v>
+        <v>0.75431034482758619</v>
       </c>
       <c r="AB14">
-        <v>0.84444444444444444</v>
+        <v>0.77542372881355937</v>
       </c>
       <c r="AC14">
-        <v>0.85588235294117643</v>
+        <v>0.74439461883408076</v>
       </c>
       <c r="AD14">
-        <v>0.76174496644295298</v>
+        <v>0.63492063492063489</v>
       </c>
       <c r="AE14">
-        <v>0.85832187070151311</v>
+        <v>0.72995780590717296</v>
       </c>
       <c r="AF14">
-        <v>0.87542087542087543</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1856,97 +1856,97 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.90569105691056906</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C15">
-        <v>0.83461538461538465</v>
+        <v>0.74</v>
       </c>
       <c r="D15">
-        <v>0.77480916030534353</v>
+        <v>0.66981132075471694</v>
       </c>
       <c r="E15">
-        <v>0.80155642023346307</v>
+        <v>0.65979381443298968</v>
       </c>
       <c r="F15">
-        <v>0.79133858267716539</v>
+        <v>0.65656565656565657</v>
       </c>
       <c r="G15">
-        <v>0.88475836431226762</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="H15">
-        <v>0.8817034700315457</v>
+        <v>0.79104477611940294</v>
       </c>
       <c r="I15">
-        <v>0.84274809160305342</v>
+        <v>0.70531400966183577</v>
       </c>
       <c r="J15">
-        <v>0.90109890109890112</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="K15">
-        <v>0.89879931389365353</v>
+        <v>0.81025641025641026</v>
       </c>
       <c r="L15">
-        <v>0.88532110091743121</v>
+        <v>0.74881516587677721</v>
       </c>
       <c r="M15">
-        <v>0.86377708978328172</v>
+        <v>0.77669902912621358</v>
       </c>
       <c r="N15">
-        <v>0.86170212765957444</v>
+        <v>0.7429906542056075</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.79788838612368029</v>
+        <v>0.60280373831775702</v>
       </c>
       <c r="Q15">
-        <v>0.87412587412587417</v>
+        <v>0.78835978835978837</v>
       </c>
       <c r="R15">
-        <v>0.89557522123893807</v>
+        <v>0.83243243243243248</v>
       </c>
       <c r="S15">
-        <v>0.75415282392026584</v>
+        <v>0.57435897435897432</v>
       </c>
       <c r="T15">
-        <v>0.91866028708133973</v>
+        <v>0.83253588516746413</v>
       </c>
       <c r="U15">
-        <v>0.85440000000000005</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="V15">
-        <v>0.86329866270430911</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="W15">
-        <v>0.9095092024539877</v>
+        <v>0.86341463414634145</v>
       </c>
       <c r="X15">
-        <v>0.90361445783132532</v>
+        <v>0.83098591549295775</v>
       </c>
       <c r="Y15">
-        <v>0.85918003565062384</v>
+        <v>0.75</v>
       </c>
       <c r="Z15">
-        <v>0.81226765799256506</v>
+        <v>0.68527918781725883</v>
       </c>
       <c r="AA15">
-        <v>0.9025875190258752</v>
+        <v>0.863849765258216</v>
       </c>
       <c r="AB15">
-        <v>0.8262839879154078</v>
+        <v>0.70560747663551404</v>
       </c>
       <c r="AC15">
-        <v>0.91185897435897434</v>
+        <v>0.84653465346534651</v>
       </c>
       <c r="AD15">
-        <v>0.73544973544973546</v>
+        <v>0.55932203389830504</v>
       </c>
       <c r="AE15">
-        <v>0.85500747384155451</v>
+        <v>0.72350230414746541</v>
       </c>
       <c r="AF15">
-        <v>0.88602941176470584</v>
+        <v>0.81904761904761902</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1954,97 +1954,97 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.75370919881305642</v>
+        <v>0.50230414746543783</v>
       </c>
       <c r="C16">
-        <v>0.79020979020979021</v>
+        <v>0.69724770642201839</v>
       </c>
       <c r="D16">
-        <v>0.81184668989547037</v>
+        <v>0.74561403508771928</v>
       </c>
       <c r="E16">
-        <v>0.80565371024734977</v>
+        <v>0.68224299065420557</v>
       </c>
       <c r="F16">
-        <v>0.82437275985663083</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="G16">
-        <v>0.76530612244897955</v>
+        <v>0.61061946902654862</v>
       </c>
       <c r="H16">
-        <v>0.80863309352517987</v>
+        <v>0.60538116591928248</v>
       </c>
       <c r="I16">
-        <v>0.82869080779944293</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="J16">
-        <v>0.77891654465592974</v>
+        <v>0.5339366515837104</v>
       </c>
       <c r="K16">
-        <v>0.76645768025078365</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="L16">
-        <v>0.79694019471488176</v>
+        <v>0.57081545064377681</v>
       </c>
       <c r="M16">
-        <v>0.82909604519774016</v>
+        <v>0.67841409691629961</v>
       </c>
       <c r="N16">
-        <v>0.81527777777777777</v>
+        <v>0.64529914529914534</v>
       </c>
       <c r="O16">
-        <v>0.79788838612368029</v>
+        <v>0.60280373831775702</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.75967741935483868</v>
+        <v>0.55825242718446599</v>
       </c>
       <c r="R16">
-        <v>0.77795527156549515</v>
+        <v>0.56310679611650483</v>
       </c>
       <c r="S16">
-        <v>0.81610942249240126</v>
+        <v>0.69339622641509435</v>
       </c>
       <c r="T16">
-        <v>0.80469897209985319</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="U16">
-        <v>0.79325513196480935</v>
+        <v>0.60444444444444445</v>
       </c>
       <c r="V16">
-        <v>0.77445652173913049</v>
+        <v>0.61603375527426163</v>
       </c>
       <c r="W16">
-        <v>0.76704545454545459</v>
+        <v>0.52534562211981561</v>
       </c>
       <c r="X16">
-        <v>0.78303198887343528</v>
+        <v>0.55217391304347829</v>
       </c>
       <c r="Y16">
-        <v>0.78737541528239208</v>
+        <v>0.609375</v>
       </c>
       <c r="Z16">
-        <v>0.7811965811965812</v>
+        <v>0.61395348837209307</v>
       </c>
       <c r="AA16">
-        <v>0.74369747899159666</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="AB16">
-        <v>0.81353591160220995</v>
+        <v>0.67094017094017089</v>
       </c>
       <c r="AC16">
-        <v>0.75620437956204378</v>
+        <v>0.5112107623318386</v>
       </c>
       <c r="AD16">
-        <v>0.83582089552238803</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="AE16">
-        <v>0.85792349726775952</v>
+        <v>0.74576271186440679</v>
       </c>
       <c r="AF16">
-        <v>0.78114478114478114</v>
+        <v>0.63716814159292035</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2052,97 +2052,97 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.90311418685121103</v>
+        <v>0.86082474226804129</v>
       </c>
       <c r="C17">
-        <v>0.81060606060606055</v>
+        <v>0.68</v>
       </c>
       <c r="D17">
-        <v>0.80769230769230771</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E17">
-        <v>0.83783783783783783</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="F17">
-        <v>0.79069767441860461</v>
+        <v>0.64948453608247425</v>
       </c>
       <c r="G17">
-        <v>0.85227272727272729</v>
+        <v>0.8</v>
       </c>
       <c r="H17">
-        <v>0.85929648241206025</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="I17">
-        <v>0.81596091205211729</v>
+        <v>0.68159203980099503</v>
       </c>
       <c r="J17">
-        <v>0.87521367521367521</v>
+        <v>0.80512820512820515</v>
       </c>
       <c r="K17">
-        <v>0.8613678373382625</v>
+        <v>0.78191489361702127</v>
       </c>
       <c r="L17">
-        <v>0.85575364667747167</v>
+        <v>0.74146341463414633</v>
       </c>
       <c r="M17">
-        <v>0.84132231404958679</v>
+        <v>0.74242424242424243</v>
       </c>
       <c r="N17">
-        <v>0.84219001610305955</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="O17">
-        <v>0.87412587412587417</v>
+        <v>0.78835978835978837</v>
       </c>
       <c r="P17">
-        <v>0.75967741935483868</v>
+        <v>0.55825242718446599</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.89265536723163841</v>
+        <v>0.85</v>
       </c>
       <c r="S17">
-        <v>0.76301615798922806</v>
+        <v>0.63243243243243241</v>
       </c>
       <c r="T17">
-        <v>0.88717948717948714</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="U17">
-        <v>0.86206896551724133</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="V17">
-        <v>0.84285714285714286</v>
+        <v>0.79047619047619044</v>
       </c>
       <c r="W17">
-        <v>0.89054726368159209</v>
+        <v>0.84293193717277481</v>
       </c>
       <c r="X17">
-        <v>0.87317073170731707</v>
+        <v>0.79802955665024633</v>
       </c>
       <c r="Y17">
-        <v>0.87378640776699024</v>
+        <v>0.77647058823529413</v>
       </c>
       <c r="Z17">
-        <v>0.81960784313725488</v>
+        <v>0.71859296482412061</v>
       </c>
       <c r="AA17">
-        <v>0.88360655737704918</v>
+        <v>0.8423645320197044</v>
       </c>
       <c r="AB17">
-        <v>0.77831715210355989</v>
+        <v>0.64563106796116509</v>
       </c>
       <c r="AC17">
-        <v>0.88907849829351537</v>
+        <v>0.82741116751269039</v>
       </c>
       <c r="AD17">
-        <v>0.71875</v>
+        <v>0.54037267080745344</v>
       </c>
       <c r="AE17">
-        <v>0.82747603833865813</v>
+        <v>0.70813397129186606</v>
       </c>
       <c r="AF17">
-        <v>0.86245353159851301</v>
+        <v>0.80392156862745101</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -2150,97 +2150,97 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.94700854700854697</v>
+        <v>0.91052631578947374</v>
       </c>
       <c r="C18">
-        <v>0.83720930232558144</v>
+        <v>0.76767676767676762</v>
       </c>
       <c r="D18">
-        <v>0.80078125</v>
+        <v>0.68932038834951459</v>
       </c>
       <c r="E18">
-        <v>0.80859375</v>
+        <v>0.70707070707070707</v>
       </c>
       <c r="F18">
-        <v>0.80158730158730163</v>
+        <v>0.68367346938775508</v>
       </c>
       <c r="G18">
-        <v>0.94339622641509435</v>
+        <v>0.94174757281553401</v>
       </c>
       <c r="H18">
-        <v>0.88480801335559267</v>
+        <v>0.82233502538071068</v>
       </c>
       <c r="I18">
-        <v>0.84006462035541196</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="J18">
-        <v>0.92517006802721091</v>
+        <v>0.859375</v>
       </c>
       <c r="K18">
-        <v>0.90892857142857142</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="L18">
-        <v>0.86970684039087953</v>
+        <v>0.76847290640394084</v>
       </c>
       <c r="M18">
-        <v>0.86</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="N18">
-        <v>0.8564516129032258</v>
+        <v>0.75242718446601942</v>
       </c>
       <c r="O18">
-        <v>0.89557522123893807</v>
+        <v>0.83243243243243248</v>
       </c>
       <c r="P18">
-        <v>0.77795527156549515</v>
+        <v>0.56310679611650483</v>
       </c>
       <c r="Q18">
-        <v>0.89265536723163841</v>
+        <v>0.85</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.75971731448763247</v>
+        <v>0.60962566844919786</v>
       </c>
       <c r="T18">
-        <v>0.90831918505942277</v>
+        <v>0.8375634517766497</v>
       </c>
       <c r="U18">
-        <v>0.87266553480475384</v>
+        <v>0.78894472361809043</v>
       </c>
       <c r="V18">
-        <v>0.86031746031746037</v>
+        <v>0.78155339805825241</v>
       </c>
       <c r="W18">
-        <v>0.95874587458745875</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="X18">
-        <v>0.92096774193548392</v>
+        <v>0.84</v>
       </c>
       <c r="Y18">
-        <v>0.84703632887189295</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="Z18">
-        <v>0.82658959537572252</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA18">
-        <v>0.9306451612903226</v>
+        <v>0.88292682926829269</v>
       </c>
       <c r="AB18">
-        <v>0.80452342487883688</v>
+        <v>0.67487684729064035</v>
       </c>
       <c r="AC18">
-        <v>0.95158597662771283</v>
+        <v>0.92893401015228427</v>
       </c>
       <c r="AD18">
-        <v>0.71455938697318011</v>
+        <v>0.54705882352941182</v>
       </c>
       <c r="AE18">
-        <v>0.82643312101910826</v>
+        <v>0.70048309178743962</v>
       </c>
       <c r="AF18">
-        <v>0.89473684210526316</v>
+        <v>0.86274509803921573</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2248,97 +2248,97 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.75161290322580643</v>
+        <v>0.57435897435897432</v>
       </c>
       <c r="C19">
-        <v>0.77253218884120167</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="D19">
-        <v>0.7531380753138075</v>
+        <v>0.62886597938144329</v>
       </c>
       <c r="E19">
-        <v>0.80519480519480524</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="F19">
-        <v>0.78165938864628826</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="G19">
-        <v>0.71784232365145229</v>
+        <v>0.58762886597938147</v>
       </c>
       <c r="H19">
-        <v>0.79073482428115016</v>
+        <v>0.63316582914572861</v>
       </c>
       <c r="I19">
-        <v>0.80981595092024539</v>
+        <v>0.63592233009708743</v>
       </c>
       <c r="J19">
-        <v>0.75396825396825395</v>
+        <v>0.57635467980295563</v>
       </c>
       <c r="K19">
-        <v>0.78397212543554007</v>
+        <v>0.62176165803108807</v>
       </c>
       <c r="L19">
-        <v>0.77846153846153843</v>
+        <v>0.62200956937799046</v>
       </c>
       <c r="M19">
-        <v>0.78897637795275588</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="N19">
-        <v>0.76380368098159512</v>
+        <v>0.589622641509434</v>
       </c>
       <c r="O19">
-        <v>0.75415282392026584</v>
+        <v>0.57435897435897432</v>
       </c>
       <c r="P19">
-        <v>0.81610942249240126</v>
+        <v>0.69339622641509435</v>
       </c>
       <c r="Q19">
-        <v>0.76301615798922806</v>
+        <v>0.63243243243243241</v>
       </c>
       <c r="R19">
-        <v>0.75971731448763247</v>
+        <v>0.60962566844919786</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.76268412438625199</v>
+        <v>0.59605911330049266</v>
       </c>
       <c r="U19">
-        <v>0.78303425774877655</v>
+        <v>0.63184079601990051</v>
       </c>
       <c r="V19">
-        <v>0.7488721804511278</v>
+        <v>0.56132075471698117</v>
       </c>
       <c r="W19">
-        <v>0.755868544600939</v>
+        <v>0.57868020304568524</v>
       </c>
       <c r="X19">
-        <v>0.72769230769230764</v>
+        <v>0.50970873786407767</v>
       </c>
       <c r="Y19">
-        <v>0.75319926873857401</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="Z19">
-        <v>0.76803118908382062</v>
+        <v>0.62694300518134716</v>
       </c>
       <c r="AA19">
-        <v>0.74961119751166405</v>
+        <v>0.58373205741626799</v>
       </c>
       <c r="AB19">
-        <v>0.81707317073170727</v>
+        <v>0.67772511848341233</v>
       </c>
       <c r="AC19">
-        <v>0.752411575562701</v>
+        <v>0.57711442786069655</v>
       </c>
       <c r="AD19">
-        <v>0.83245149911816574</v>
+        <v>0.72</v>
       </c>
       <c r="AE19">
-        <v>0.78636363636363638</v>
+        <v>0.64928909952606639</v>
       </c>
       <c r="AF19">
-        <v>0.7119341563786008</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2346,97 +2346,97 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.92621664050235475</v>
+        <v>0.87735849056603776</v>
       </c>
       <c r="C20">
-        <v>0.84558823529411764</v>
+        <v>0.78504672897196259</v>
       </c>
       <c r="D20">
-        <v>0.81751824817518248</v>
+        <v>0.74561403508771928</v>
       </c>
       <c r="E20">
-        <v>0.82397003745318353</v>
+        <v>0.72115384615384615</v>
       </c>
       <c r="F20">
-        <v>0.83773584905660381</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="G20">
-        <v>0.87725631768953072</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="H20">
-        <v>0.88514548238897395</v>
+        <v>0.78504672897196259</v>
       </c>
       <c r="I20">
-        <v>0.85163204747774479</v>
+        <v>0.72072072072072069</v>
       </c>
       <c r="J20">
-        <v>0.92031249999999998</v>
+        <v>0.85116279069767442</v>
       </c>
       <c r="K20">
-        <v>0.92066115702479334</v>
+        <v>0.86057692307692313</v>
       </c>
       <c r="L20">
-        <v>0.87928464977645304</v>
+        <v>0.76</v>
       </c>
       <c r="M20">
-        <v>0.86102719033232633</v>
+        <v>0.75113122171945701</v>
       </c>
       <c r="N20">
-        <v>0.85777777777777775</v>
+        <v>0.73799126637554591</v>
       </c>
       <c r="O20">
-        <v>0.91866028708133973</v>
+        <v>0.83253588516746413</v>
       </c>
       <c r="P20">
-        <v>0.80469897209985319</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="Q20">
-        <v>0.88717948717948714</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="R20">
-        <v>0.90831918505942277</v>
+        <v>0.8375634517766497</v>
       </c>
       <c r="S20">
-        <v>0.76268412438625199</v>
+        <v>0.59605911330049266</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.85825545171339568</v>
+        <v>0.73181818181818181</v>
       </c>
       <c r="V20">
-        <v>0.8596237337192475</v>
+        <v>0.78017241379310343</v>
       </c>
       <c r="W20">
-        <v>0.91350531107738997</v>
+        <v>0.85167464114832536</v>
       </c>
       <c r="X20">
-        <v>0.90841949778434272</v>
+        <v>0.83628318584070793</v>
       </c>
       <c r="Y20">
-        <v>0.8571428571428571</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="Z20">
-        <v>0.84107142857142858</v>
+        <v>0.75714285714285712</v>
       </c>
       <c r="AA20">
-        <v>0.92011834319526631</v>
+        <v>0.88495575221238942</v>
       </c>
       <c r="AB20">
-        <v>0.81029411764705883</v>
+        <v>0.67248908296943233</v>
       </c>
       <c r="AC20">
-        <v>0.91575663026521059</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="AD20">
-        <v>0.73262032085561501</v>
+        <v>0.55978260869565222</v>
       </c>
       <c r="AE20">
-        <v>0.87317784256559772</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="AF20">
-        <v>0.87632508833922262</v>
+        <v>0.82300884955752207</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2444,97 +2444,97 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.88132911392405067</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="C21">
-        <v>0.82330827067669177</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="D21">
-        <v>0.80297397769516732</v>
+        <v>0.70909090909090911</v>
       </c>
       <c r="E21">
-        <v>0.82954545454545459</v>
+        <v>0.71287128712871284</v>
       </c>
       <c r="F21">
-        <v>0.80608365019011408</v>
+        <v>0.69523809523809521</v>
       </c>
       <c r="G21">
-        <v>0.87912087912087911</v>
+        <v>0.78301886792452835</v>
       </c>
       <c r="H21">
-        <v>0.88786482334869432</v>
+        <v>0.79342723004694837</v>
       </c>
       <c r="I21">
-        <v>0.86329866270430911</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="J21">
-        <v>0.86895475819032764</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="K21">
-        <v>0.8737373737373737</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="L21">
-        <v>0.86775631500742945</v>
+        <v>0.76576576576576572</v>
       </c>
       <c r="M21">
-        <v>0.84766214177978882</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N21">
-        <v>0.85419734904270983</v>
+        <v>0.76651982378854622</v>
       </c>
       <c r="O21">
-        <v>0.85440000000000005</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="P21">
-        <v>0.79325513196480935</v>
+        <v>0.60444444444444445</v>
       </c>
       <c r="Q21">
-        <v>0.86206896551724133</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="R21">
-        <v>0.87266553480475384</v>
+        <v>0.78894472361809043</v>
       </c>
       <c r="S21">
-        <v>0.78303425774877655</v>
+        <v>0.63184079601990051</v>
       </c>
       <c r="T21">
-        <v>0.85825545171339568</v>
+        <v>0.73181818181818181</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.84992784992784998</v>
+        <v>0.76855895196506552</v>
       </c>
       <c r="W21">
-        <v>0.87727272727272732</v>
+        <v>0.78640776699029125</v>
       </c>
       <c r="X21">
-        <v>0.87243401759530792</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Y21">
-        <v>0.87211367673179396</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="Z21">
-        <v>0.83783783783783783</v>
+        <v>0.75480769230769229</v>
       </c>
       <c r="AA21">
-        <v>0.86736214605067063</v>
+        <v>0.7589285714285714</v>
       </c>
       <c r="AB21">
-        <v>0.84040995607613467</v>
+        <v>0.75221238938053092</v>
       </c>
       <c r="AC21">
-        <v>0.87675507020280807</v>
+        <v>0.77830188679245282</v>
       </c>
       <c r="AD21">
-        <v>0.75670840787119853</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="AE21">
-        <v>0.83889695210449933</v>
+        <v>0.69868995633187769</v>
       </c>
       <c r="AF21">
-        <v>0.84946236559139787</v>
+        <v>0.75229357798165142</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2542,97 +2542,97 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.85964912280701755</v>
+        <v>0.79090909090909089</v>
       </c>
       <c r="C22">
-        <v>0.84775086505190311</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D22">
-        <v>0.81506849315068497</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="E22">
-        <v>0.81754385964912279</v>
+        <v>0.73148148148148151</v>
       </c>
       <c r="F22">
-        <v>0.79577464788732399</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G22">
-        <v>0.8716216216216216</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="H22">
-        <v>0.83357041251778097</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="I22">
-        <v>0.8168044077134986</v>
+        <v>0.70995670995671001</v>
       </c>
       <c r="J22">
-        <v>0.84393063583815031</v>
+        <v>0.73094170403587444</v>
       </c>
       <c r="K22">
-        <v>0.84292379471228618</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>0.84044016506189823</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="M22">
-        <v>0.83496503496503494</v>
+        <v>0.75438596491228072</v>
       </c>
       <c r="N22">
-        <v>0.83584131326949385</v>
+        <v>0.73109243697478987</v>
       </c>
       <c r="O22">
-        <v>0.86329866270430911</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="P22">
-        <v>0.77445652173913049</v>
+        <v>0.61603375527426163</v>
       </c>
       <c r="Q22">
-        <v>0.84285714285714286</v>
+        <v>0.79047619047619044</v>
       </c>
       <c r="R22">
-        <v>0.86031746031746037</v>
+        <v>0.78155339805825241</v>
       </c>
       <c r="S22">
-        <v>0.7488721804511278</v>
+        <v>0.56132075471698117</v>
       </c>
       <c r="T22">
-        <v>0.8596237337192475</v>
+        <v>0.78017241379310343</v>
       </c>
       <c r="U22">
-        <v>0.84992784992784998</v>
+        <v>0.76855895196506552</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.8665730337078652</v>
+        <v>0.79357798165137616</v>
       </c>
       <c r="X22">
-        <v>0.86593707250342</v>
+        <v>0.79148936170212769</v>
       </c>
       <c r="Y22">
-        <v>0.84451718494271688</v>
+        <v>0.76530612244897955</v>
       </c>
       <c r="Z22">
-        <v>0.81756756756756754</v>
+        <v>0.72146118721461183</v>
       </c>
       <c r="AA22">
-        <v>0.86149584487534625</v>
+        <v>0.79148936170212769</v>
       </c>
       <c r="AB22">
-        <v>0.80544217687074826</v>
+        <v>0.69747899159663862</v>
       </c>
       <c r="AC22">
-        <v>0.86580086580086579</v>
+        <v>0.78125</v>
       </c>
       <c r="AD22">
-        <v>0.75737704918032789</v>
+        <v>0.62631578947368416</v>
       </c>
       <c r="AE22">
-        <v>0.83692722371967654</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="AF22">
-        <v>0.88741721854304634</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2640,97 +2640,97 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.94615384615384612</v>
+        <v>0.91919191919191923</v>
       </c>
       <c r="C23">
-        <v>0.81784386617100369</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="D23">
-        <v>0.76119402985074625</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E23">
-        <v>0.8098859315589354</v>
+        <v>0.67032967032967028</v>
       </c>
       <c r="F23">
-        <v>0.77394636015325668</v>
+        <v>0.62365591397849462</v>
       </c>
       <c r="G23">
-        <v>0.93840579710144922</v>
+        <v>0.90816326530612246</v>
       </c>
       <c r="H23">
-        <v>0.89004457652303115</v>
+        <v>0.79024390243902443</v>
       </c>
       <c r="I23">
-        <v>0.84097421203438394</v>
+        <v>0.71028037383177567</v>
       </c>
       <c r="J23">
-        <v>0.92514970059880242</v>
+        <v>0.87081339712918659</v>
       </c>
       <c r="K23">
-        <v>0.92032520325203249</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="L23">
-        <v>0.89255014326647564</v>
+        <v>0.8018433179723502</v>
       </c>
       <c r="M23">
-        <v>0.85043988269794724</v>
+        <v>0.74271844660194175</v>
       </c>
       <c r="N23">
-        <v>0.86389684813753587</v>
+        <v>0.74537037037037035</v>
       </c>
       <c r="O23">
-        <v>0.9095092024539877</v>
+        <v>0.86341463414634145</v>
       </c>
       <c r="P23">
-        <v>0.76704545454545459</v>
+        <v>0.52534562211981561</v>
       </c>
       <c r="Q23">
-        <v>0.89054726368159209</v>
+        <v>0.84293193717277481</v>
       </c>
       <c r="R23">
-        <v>0.95874587458745875</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="S23">
-        <v>0.755868544600939</v>
+        <v>0.57868020304568524</v>
       </c>
       <c r="T23">
-        <v>0.91350531107738997</v>
+        <v>0.85167464114832536</v>
       </c>
       <c r="U23">
-        <v>0.87727272727272732</v>
+        <v>0.78640776699029125</v>
       </c>
       <c r="V23">
-        <v>0.8665730337078652</v>
+        <v>0.79357798165137616</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0.92252510760401718</v>
+        <v>0.863849765258216</v>
       </c>
       <c r="Y23">
-        <v>0.86712095400340716</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="Z23">
-        <v>0.83215547703180215</v>
+        <v>0.72864321608040206</v>
       </c>
       <c r="AA23">
-        <v>0.94075144508670516</v>
+        <v>0.91162790697674423</v>
       </c>
       <c r="AB23">
-        <v>0.80714285714285716</v>
+        <v>0.64651162790697669</v>
       </c>
       <c r="AC23">
-        <v>0.96101949025487254</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="AD23">
-        <v>0.71619365609348917</v>
+        <v>0.51630434782608692</v>
       </c>
       <c r="AE23">
-        <v>0.83852691218130315</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="AF23">
-        <v>0.8848920863309353</v>
+        <v>0.81632653061224492</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -2738,97 +2738,97 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.91754122938530736</v>
+        <v>0.85915492957746475</v>
       </c>
       <c r="C24">
-        <v>0.84587813620071683</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="D24">
-        <v>0.79078014184397161</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E24">
-        <v>0.81090909090909091</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="F24">
-        <v>0.8029197080291971</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="G24">
-        <v>0.91258741258741261</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H24">
-        <v>0.88905109489051093</v>
+        <v>0.78240740740740744</v>
       </c>
       <c r="I24">
-        <v>0.84626234132581102</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J24">
-        <v>0.90909090909090906</v>
+        <v>0.80821917808219179</v>
       </c>
       <c r="K24">
-        <v>0.90779014308426076</v>
+        <v>0.81428571428571428</v>
       </c>
       <c r="L24">
-        <v>0.87183098591549291</v>
+        <v>0.74008810572687223</v>
       </c>
       <c r="M24">
-        <v>0.86142857142857143</v>
+        <v>0.75225225225225223</v>
       </c>
       <c r="N24">
-        <v>0.86414565826330536</v>
+        <v>0.74458874458874458</v>
       </c>
       <c r="O24">
-        <v>0.90361445783132532</v>
+        <v>0.83098591549295775</v>
       </c>
       <c r="P24">
-        <v>0.78303198887343528</v>
+        <v>0.55217391304347829</v>
       </c>
       <c r="Q24">
-        <v>0.87317073170731707</v>
+        <v>0.79802955665024633</v>
       </c>
       <c r="R24">
-        <v>0.92096774193548392</v>
+        <v>0.84</v>
       </c>
       <c r="S24">
-        <v>0.72769230769230764</v>
+        <v>0.50970873786407767</v>
       </c>
       <c r="T24">
-        <v>0.90841949778434272</v>
+        <v>0.83628318584070793</v>
       </c>
       <c r="U24">
-        <v>0.87243401759530792</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="V24">
-        <v>0.86593707250342</v>
+        <v>0.79148936170212769</v>
       </c>
       <c r="W24">
-        <v>0.92252510760401718</v>
+        <v>0.863849765258216</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.86920529801324509</v>
+        <v>0.75647668393782386</v>
       </c>
       <c r="Z24">
-        <v>0.846815834767642</v>
+        <v>0.76525821596244137</v>
       </c>
       <c r="AA24">
-        <v>0.90354609929078011</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="AB24">
-        <v>0.81197771587743728</v>
+        <v>0.67099567099567103</v>
       </c>
       <c r="AC24">
-        <v>0.91272189349112431</v>
+        <v>0.84331797235023043</v>
       </c>
       <c r="AD24">
-        <v>0.72194304857621439</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="AE24">
-        <v>0.8510344827586207</v>
+        <v>0.71673819742489275</v>
       </c>
       <c r="AF24">
-        <v>0.88698630136986301</v>
+        <v>0.81981981981981977</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2836,97 +2836,97 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.8571428571428571</v>
+        <v>0.71508379888268159</v>
       </c>
       <c r="C25">
-        <v>0.81889763779527558</v>
+        <v>0.6875</v>
       </c>
       <c r="D25">
-        <v>0.7976653696498055</v>
+        <v>0.70873786407766992</v>
       </c>
       <c r="E25">
-        <v>0.82470119521912355</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>0.68041237113402064</v>
       </c>
       <c r="G25">
-        <v>0.80916030534351147</v>
+        <v>0.7</v>
       </c>
       <c r="H25">
-        <v>0.85248713550600341</v>
+        <v>0.70108695652173914</v>
       </c>
       <c r="I25">
-        <v>0.84628378378378377</v>
+        <v>0.69680851063829785</v>
       </c>
       <c r="J25">
-        <v>0.83275862068965523</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="K25">
-        <v>0.84090909090909094</v>
+        <v>0.71022727272727271</v>
       </c>
       <c r="L25">
-        <v>0.83966942148760326</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="M25">
-        <v>0.84931506849315064</v>
+        <v>0.71657754010695185</v>
       </c>
       <c r="N25">
-        <v>0.82747068676716917</v>
+        <v>0.68717948717948718</v>
       </c>
       <c r="O25">
-        <v>0.85918003565062384</v>
+        <v>0.75</v>
       </c>
       <c r="P25">
-        <v>0.78737541528239208</v>
+        <v>0.609375</v>
       </c>
       <c r="Q25">
-        <v>0.87378640776699024</v>
+        <v>0.77647058823529413</v>
       </c>
       <c r="R25">
-        <v>0.84703632887189295</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="S25">
-        <v>0.75319926873857401</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="T25">
-        <v>0.8571428571428571</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="U25">
-        <v>0.87211367673179396</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="V25">
-        <v>0.84451718494271688</v>
+        <v>0.76530612244897955</v>
       </c>
       <c r="W25">
-        <v>0.86712095400340716</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="X25">
-        <v>0.86920529801324509</v>
+        <v>0.75647668393782386</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.82995951417004044</v>
+        <v>0.7134831460674157</v>
       </c>
       <c r="AA25">
-        <v>0.8375634517766497</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AB25">
-        <v>0.81364392678868558</v>
+        <v>0.64615384615384619</v>
       </c>
       <c r="AC25">
-        <v>0.84895833333333337</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="AD25">
-        <v>0.76626016260162599</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="AE25">
-        <v>0.84678747940691923</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="AF25">
-        <v>0.80970149253731338</v>
+        <v>0.70873786407766992</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -2934,97 +2934,97 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.83054003724394787</v>
+        <v>0.75</v>
       </c>
       <c r="C26">
-        <v>0.8422939068100358</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="D26">
-        <v>0.83571428571428574</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="E26">
-        <v>0.84727272727272729</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="F26">
-        <v>0.8302583025830258</v>
+        <v>0.71153846153846156</v>
       </c>
       <c r="G26">
-        <v>0.80701754385964908</v>
+        <v>0.71296296296296291</v>
       </c>
       <c r="H26">
-        <v>0.83392226148409898</v>
+        <v>0.72549019607843135</v>
       </c>
       <c r="I26">
-        <v>0.86010362694300513</v>
+        <v>0.74407582938388628</v>
       </c>
       <c r="J26">
-        <v>0.8306010928961749</v>
+        <v>0.7277227722772277</v>
       </c>
       <c r="K26">
-        <v>0.84220532319391639</v>
+        <v>0.73737373737373735</v>
       </c>
       <c r="L26">
-        <v>0.82055749128919864</v>
+        <v>0.7009345794392523</v>
       </c>
       <c r="M26">
-        <v>0.80106571936056836</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="N26">
-        <v>0.81615120274914088</v>
+        <v>0.72558139534883725</v>
       </c>
       <c r="O26">
-        <v>0.81226765799256506</v>
+        <v>0.68527918781725883</v>
       </c>
       <c r="P26">
-        <v>0.7811965811965812</v>
+        <v>0.61395348837209307</v>
       </c>
       <c r="Q26">
-        <v>0.81960784313725488</v>
+        <v>0.71859296482412061</v>
       </c>
       <c r="R26">
-        <v>0.82658959537572252</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S26">
-        <v>0.76803118908382062</v>
+        <v>0.62694300518134716</v>
       </c>
       <c r="T26">
-        <v>0.84107142857142858</v>
+        <v>0.75714285714285712</v>
       </c>
       <c r="U26">
-        <v>0.83783783783783783</v>
+        <v>0.75480769230769229</v>
       </c>
       <c r="V26">
-        <v>0.81756756756756754</v>
+        <v>0.72146118721461183</v>
       </c>
       <c r="W26">
-        <v>0.83215547703180215</v>
+        <v>0.72864321608040206</v>
       </c>
       <c r="X26">
-        <v>0.846815834767642</v>
+        <v>0.76525821596244137</v>
       </c>
       <c r="Y26">
-        <v>0.82995951417004044</v>
+        <v>0.7134831460674157</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.8232235701906413</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="AB26">
-        <v>0.81583476764199658</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="AC26">
-        <v>0.82795698924731187</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="AD26">
-        <v>0.73347107438016534</v>
+        <v>0.56976744186046513</v>
       </c>
       <c r="AE26">
-        <v>0.81154499151103565</v>
+        <v>0.70776255707762559</v>
       </c>
       <c r="AF26">
-        <v>0.80276816608996537</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3032,97 +3032,97 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.95</v>
+        <v>0.91588785046728971</v>
       </c>
       <c r="C27">
-        <v>0.82746478873239437</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="D27">
-        <v>0.75789473684210529</v>
+        <v>0.66086956521739126</v>
       </c>
       <c r="E27">
-        <v>0.79359430604982206</v>
+        <v>0.70754716981132071</v>
       </c>
       <c r="F27">
-        <v>0.78700361010830322</v>
+        <v>0.67592592592592593</v>
       </c>
       <c r="G27">
-        <v>0.90443686006825941</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="H27">
-        <v>0.87900874635568516</v>
+        <v>0.80180180180180183</v>
       </c>
       <c r="I27">
-        <v>0.828125</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="J27">
-        <v>0.92365269461077848</v>
+        <v>0.87155963302752293</v>
       </c>
       <c r="K27">
-        <v>0.92185007974481659</v>
+        <v>0.89302325581395348</v>
       </c>
       <c r="L27">
-        <v>0.86382978723404258</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="M27">
-        <v>0.83646888567293776</v>
+        <v>0.73542600896860988</v>
       </c>
       <c r="N27">
-        <v>0.85269121813031157</v>
+        <v>0.75431034482758619</v>
       </c>
       <c r="O27">
-        <v>0.9025875190258752</v>
+        <v>0.863849765258216</v>
       </c>
       <c r="P27">
-        <v>0.74369747899159666</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="Q27">
-        <v>0.88360655737704918</v>
+        <v>0.8423645320197044</v>
       </c>
       <c r="R27">
-        <v>0.9306451612903226</v>
+        <v>0.88292682926829269</v>
       </c>
       <c r="S27">
-        <v>0.74961119751166405</v>
+        <v>0.58373205741626799</v>
       </c>
       <c r="T27">
-        <v>0.92011834319526631</v>
+        <v>0.88495575221238942</v>
       </c>
       <c r="U27">
-        <v>0.86736214605067063</v>
+        <v>0.7589285714285714</v>
       </c>
       <c r="V27">
-        <v>0.86149584487534625</v>
+        <v>0.79148936170212769</v>
       </c>
       <c r="W27">
-        <v>0.94075144508670516</v>
+        <v>0.91162790697674423</v>
       </c>
       <c r="X27">
-        <v>0.90354609929078011</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="Y27">
-        <v>0.8375634517766497</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Z27">
-        <v>0.8232235701906413</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.8115330520393812</v>
+        <v>0.69396551724137934</v>
       </c>
       <c r="AC27">
-        <v>0.94955489614243327</v>
+        <v>0.92760180995475117</v>
       </c>
       <c r="AD27">
-        <v>0.7099494097807757</v>
+        <v>0.52127659574468088</v>
       </c>
       <c r="AE27">
-        <v>0.8382147838214784</v>
+        <v>0.70085470085470081</v>
       </c>
       <c r="AF27">
-        <v>0.87796610169491529</v>
+        <v>0.81578947368421051</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -3130,97 +3130,97 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.81101190476190477</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="C28">
-        <v>0.87804878048780488</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="D28">
-        <v>0.81379310344827582</v>
+        <v>0.76068376068376065</v>
       </c>
       <c r="E28">
-        <v>0.8409893992932862</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="F28">
-        <v>0.84397163120567376</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="G28">
-        <v>0.79251700680272108</v>
+        <v>0.66371681415929207</v>
       </c>
       <c r="H28">
-        <v>0.84515195369030394</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="I28">
-        <v>0.8601398601398601</v>
+        <v>0.78602620087336239</v>
       </c>
       <c r="J28">
-        <v>0.82672540381791482</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="K28">
-        <v>0.82677165354330706</v>
+        <v>0.68544600938967137</v>
       </c>
       <c r="L28">
-        <v>0.8477653631284916</v>
+        <v>0.74568965517241381</v>
       </c>
       <c r="M28">
-        <v>0.85775248933143666</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="N28">
-        <v>0.84444444444444444</v>
+        <v>0.77542372881355937</v>
       </c>
       <c r="O28">
-        <v>0.8262839879154078</v>
+        <v>0.70560747663551404</v>
       </c>
       <c r="P28">
-        <v>0.81353591160220995</v>
+        <v>0.67094017094017089</v>
       </c>
       <c r="Q28">
-        <v>0.77831715210355989</v>
+        <v>0.64563106796116509</v>
       </c>
       <c r="R28">
-        <v>0.80452342487883688</v>
+        <v>0.67487684729064035</v>
       </c>
       <c r="S28">
-        <v>0.81707317073170727</v>
+        <v>0.67772511848341233</v>
       </c>
       <c r="T28">
-        <v>0.81029411764705883</v>
+        <v>0.67248908296943233</v>
       </c>
       <c r="U28">
-        <v>0.84040995607613467</v>
+        <v>0.75221238938053092</v>
       </c>
       <c r="V28">
-        <v>0.80544217687074826</v>
+        <v>0.69747899159663862</v>
       </c>
       <c r="W28">
-        <v>0.80714285714285716</v>
+        <v>0.64651162790697669</v>
       </c>
       <c r="X28">
-        <v>0.81197771587743728</v>
+        <v>0.67099567099567103</v>
       </c>
       <c r="Y28">
-        <v>0.81364392678868558</v>
+        <v>0.64615384615384619</v>
       </c>
       <c r="Z28">
-        <v>0.81583476764199658</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="AA28">
-        <v>0.8115330520393812</v>
+        <v>0.69396551724137934</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.8137829912023461</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="AD28">
-        <v>0.80265339966832505</v>
+        <v>0.69473684210526321</v>
       </c>
       <c r="AE28">
-        <v>0.852054794520548</v>
+        <v>0.76793248945147674</v>
       </c>
       <c r="AF28">
-        <v>0.83</v>
+        <v>0.74137931034482762</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -3228,97 +3228,97 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.95297805642633227</v>
+        <v>0.92270531400966183</v>
       </c>
       <c r="C29">
-        <v>0.82051282051282048</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="D29">
-        <v>0.76923076923076927</v>
+        <v>0.65420560747663548</v>
       </c>
       <c r="E29">
-        <v>0.80597014925373134</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="F29">
-        <v>0.78195488721804507</v>
+        <v>0.65346534653465349</v>
       </c>
       <c r="G29">
-        <v>0.92553191489361697</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="H29">
-        <v>0.8952959028831563</v>
+        <v>0.82464454976303314</v>
       </c>
       <c r="I29">
-        <v>0.8435672514619883</v>
+        <v>0.72398190045248867</v>
       </c>
       <c r="J29">
-        <v>0.93055555555555558</v>
+        <v>0.88516746411483249</v>
       </c>
       <c r="K29">
-        <v>0.92269736842105265</v>
+        <v>0.87745098039215685</v>
       </c>
       <c r="L29">
-        <v>0.88338192419825068</v>
+        <v>0.8</v>
       </c>
       <c r="M29">
-        <v>0.84313725490196079</v>
+        <v>0.74528301886792447</v>
       </c>
       <c r="N29">
-        <v>0.85588235294117643</v>
+        <v>0.74439461883408076</v>
       </c>
       <c r="O29">
-        <v>0.91185897435897434</v>
+        <v>0.84653465346534651</v>
       </c>
       <c r="P29">
-        <v>0.75620437956204378</v>
+        <v>0.5112107623318386</v>
       </c>
       <c r="Q29">
-        <v>0.88907849829351537</v>
+        <v>0.82741116751269039</v>
       </c>
       <c r="R29">
-        <v>0.95158597662771283</v>
+        <v>0.92893401015228427</v>
       </c>
       <c r="S29">
-        <v>0.752411575562701</v>
+        <v>0.57711442786069655</v>
       </c>
       <c r="T29">
-        <v>0.91575663026521059</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="U29">
-        <v>0.87675507020280807</v>
+        <v>0.77830188679245282</v>
       </c>
       <c r="V29">
-        <v>0.86580086580086579</v>
+        <v>0.78125</v>
       </c>
       <c r="W29">
-        <v>0.96101949025487254</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="X29">
-        <v>0.91272189349112431</v>
+        <v>0.84331797235023043</v>
       </c>
       <c r="Y29">
-        <v>0.84895833333333337</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="Z29">
-        <v>0.82795698924731187</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="AA29">
-        <v>0.94955489614243327</v>
+        <v>0.92760180995475117</v>
       </c>
       <c r="AB29">
-        <v>0.8137829912023461</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>0.72154115586690015</v>
+        <v>0.52459016393442626</v>
       </c>
       <c r="AE29">
-        <v>0.8287373004354136</v>
+        <v>0.6830357142857143</v>
       </c>
       <c r="AF29">
-        <v>0.88380281690140849</v>
+        <v>0.81308411214953269</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -3326,97 +3326,97 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.70178571428571423</v>
+        <v>0.4885057471264368</v>
       </c>
       <c r="C30">
-        <v>0.82272727272727275</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="D30">
-        <v>0.7991071428571429</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E30">
-        <v>0.80365296803652964</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="F30">
-        <v>0.83870967741935487</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="G30">
-        <v>0.74008810572687223</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="H30">
-        <v>0.74520069808027922</v>
+        <v>0.54802259887005644</v>
       </c>
       <c r="I30">
-        <v>0.7912457912457912</v>
+        <v>0.64324324324324322</v>
       </c>
       <c r="J30">
-        <v>0.70350877192982453</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.71701720841300187</v>
+        <v>0.50289017341040465</v>
       </c>
       <c r="L30">
-        <v>0.73613445378151265</v>
+        <v>0.52659574468085102</v>
       </c>
       <c r="M30">
-        <v>0.79180887372013653</v>
+        <v>0.67597765363128492</v>
       </c>
       <c r="N30">
-        <v>0.76174496644295298</v>
+        <v>0.63492063492063489</v>
       </c>
       <c r="O30">
-        <v>0.73544973544973546</v>
+        <v>0.55932203389830504</v>
       </c>
       <c r="P30">
-        <v>0.83582089552238803</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q30">
-        <v>0.71875</v>
+        <v>0.54037267080745344</v>
       </c>
       <c r="R30">
-        <v>0.71455938697318011</v>
+        <v>0.54705882352941182</v>
       </c>
       <c r="S30">
-        <v>0.83245149911816574</v>
+        <v>0.72</v>
       </c>
       <c r="T30">
-        <v>0.73262032085561501</v>
+        <v>0.55978260869565222</v>
       </c>
       <c r="U30">
-        <v>0.75670840787119853</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="V30">
-        <v>0.75737704918032789</v>
+        <v>0.62631578947368416</v>
       </c>
       <c r="W30">
-        <v>0.71619365609348917</v>
+        <v>0.51630434782608692</v>
       </c>
       <c r="X30">
-        <v>0.72194304857621439</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="Y30">
-        <v>0.76626016260162599</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="Z30">
-        <v>0.73347107438016534</v>
+        <v>0.56976744186046513</v>
       </c>
       <c r="AA30">
-        <v>0.7099494097807757</v>
+        <v>0.52127659574468088</v>
       </c>
       <c r="AB30">
-        <v>0.80265339966832505</v>
+        <v>0.69473684210526321</v>
       </c>
       <c r="AC30">
-        <v>0.72154115586690015</v>
+        <v>0.52459016393442626</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0.79372937293729373</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="AF30">
-        <v>0.74122807017543857</v>
+        <v>0.66265060240963858</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3424,97 +3424,97 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.8262150220913107</v>
+        <v>0.66210045662100458</v>
       </c>
       <c r="C31">
-        <v>0.8581314878892734</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="D31">
-        <v>0.84192439862542956</v>
+        <v>0.80508474576271183</v>
       </c>
       <c r="E31">
-        <v>0.83508771929824566</v>
+        <v>0.74311926605504586</v>
       </c>
       <c r="F31">
-        <v>0.83392226148409898</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G31">
-        <v>0.82770270270270274</v>
+        <v>0.71304347826086956</v>
       </c>
       <c r="H31">
-        <v>0.85530085959885382</v>
+        <v>0.71300448430493268</v>
       </c>
       <c r="I31">
-        <v>0.85159500693481271</v>
+        <v>0.70869565217391306</v>
       </c>
       <c r="J31">
-        <v>0.84133915574963614</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="K31">
-        <v>0.82758620689655171</v>
+        <v>0.66046511627906979</v>
       </c>
       <c r="L31">
-        <v>0.85062240663900412</v>
+        <v>0.69658119658119655</v>
       </c>
       <c r="M31">
-        <v>0.88888888888888884</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="N31">
-        <v>0.85832187070151311</v>
+        <v>0.72995780590717296</v>
       </c>
       <c r="O31">
-        <v>0.85500747384155451</v>
+        <v>0.72350230414746541</v>
       </c>
       <c r="P31">
-        <v>0.85792349726775952</v>
+        <v>0.74576271186440679</v>
       </c>
       <c r="Q31">
-        <v>0.82747603833865813</v>
+        <v>0.70813397129186606</v>
       </c>
       <c r="R31">
-        <v>0.82643312101910826</v>
+        <v>0.70048309178743962</v>
       </c>
       <c r="S31">
-        <v>0.78636363636363638</v>
+        <v>0.64928909952606639</v>
       </c>
       <c r="T31">
-        <v>0.87317784256559772</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="U31">
-        <v>0.83889695210449933</v>
+        <v>0.69868995633187769</v>
       </c>
       <c r="V31">
-        <v>0.83692722371967654</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="W31">
-        <v>0.83852691218130315</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="X31">
-        <v>0.8510344827586207</v>
+        <v>0.71673819742489275</v>
       </c>
       <c r="Y31">
-        <v>0.84678747940691923</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="Z31">
-        <v>0.81154499151103565</v>
+        <v>0.70776255707762559</v>
       </c>
       <c r="AA31">
-        <v>0.8382147838214784</v>
+        <v>0.70085470085470081</v>
       </c>
       <c r="AB31">
-        <v>0.852054794520548</v>
+        <v>0.76793248945147674</v>
       </c>
       <c r="AC31">
-        <v>0.8287373004354136</v>
+        <v>0.6830357142857143</v>
       </c>
       <c r="AD31">
-        <v>0.79372937293729373</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0.8870431893687708</v>
+        <v>0.81196581196581197</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -3522,94 +3522,94 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.90035587188612098</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="C32">
-        <v>0.87152777777777779</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="D32">
-        <v>0.82817869415807566</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="E32">
-        <v>0.8380281690140845</v>
+        <v>0.74766355140186913</v>
       </c>
       <c r="F32">
-        <v>0.83098591549295775</v>
+        <v>0.76576576576576572</v>
       </c>
       <c r="G32">
-        <v>0.88813559322033897</v>
+        <v>0.83185840707964598</v>
       </c>
       <c r="H32">
-        <v>0.87586206896551722</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="I32">
-        <v>0.81379310344827582</v>
+        <v>0.70909090909090911</v>
       </c>
       <c r="J32">
-        <v>0.88505747126436785</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="K32">
-        <v>0.84701492537313428</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="L32">
-        <v>0.87152777777777779</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="M32">
-        <v>0.87188612099644125</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="N32">
-        <v>0.87542087542087543</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="O32">
-        <v>0.88602941176470584</v>
+        <v>0.81904761904761902</v>
       </c>
       <c r="P32">
-        <v>0.78114478114478114</v>
+        <v>0.63716814159292035</v>
       </c>
       <c r="Q32">
-        <v>0.86245353159851301</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="R32">
-        <v>0.89473684210526316</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="S32">
-        <v>0.7119341563786008</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="T32">
-        <v>0.87632508833922262</v>
+        <v>0.82300884955752207</v>
       </c>
       <c r="U32">
-        <v>0.84946236559139787</v>
+        <v>0.75229357798165142</v>
       </c>
       <c r="V32">
-        <v>0.88741721854304634</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="W32">
-        <v>0.8848920863309353</v>
+        <v>0.81632653061224492</v>
       </c>
       <c r="X32">
-        <v>0.88698630136986301</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="Y32">
-        <v>0.80970149253731338</v>
+        <v>0.70873786407766992</v>
       </c>
       <c r="Z32">
-        <v>0.80276816608996537</v>
+        <v>0.7</v>
       </c>
       <c r="AA32">
-        <v>0.87796610169491529</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="AB32">
-        <v>0.83</v>
+        <v>0.74137931034482762</v>
       </c>
       <c r="AC32">
-        <v>0.88380281690140849</v>
+        <v>0.81308411214953269</v>
       </c>
       <c r="AD32">
-        <v>0.74122807017543857</v>
+        <v>0.66265060240963858</v>
       </c>
       <c r="AE32">
-        <v>0.8870431893687708</v>
+        <v>0.81196581196581197</v>
       </c>
       <c r="AF32">
         <v>1</v>

--- a/outputs/house_democrats_chamber_votes.xlsx
+++ b/outputs/house_democrats_chamber_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_democrats_chamber_votes.xlsx
+++ b/outputs/house_democrats_chamber_votes.xlsx
@@ -585,94 +585,94 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.74285714285714288</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="D2">
-        <v>0.6607142857142857</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E2">
-        <v>0.68627450980392157</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="F2">
-        <v>0.63809523809523805</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="G2">
-        <v>0.87962962962962965</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="H2">
-        <v>0.81553398058252424</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="I2">
-        <v>0.69953051643192488</v>
+        <v>0.75172413793103443</v>
       </c>
       <c r="J2">
-        <v>0.90196078431372551</v>
+        <v>0.921875</v>
       </c>
       <c r="K2">
-        <v>0.88</v>
+        <v>0.921875</v>
       </c>
       <c r="L2">
-        <v>0.8046511627906977</v>
+        <v>0.80821917808219179</v>
       </c>
       <c r="M2">
-        <v>0.75480769230769229</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="N2">
-        <v>0.76605504587155959</v>
+        <v>0.78767123287671237</v>
       </c>
       <c r="O2">
-        <v>0.83499999999999996</v>
+        <v>0.84732824427480913</v>
       </c>
       <c r="P2">
-        <v>0.50230414746543783</v>
+        <v>0.50340136054421769</v>
       </c>
       <c r="Q2">
-        <v>0.86082474226804129</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R2">
-        <v>0.91052631578947374</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="S2">
-        <v>0.57435897435897432</v>
+        <v>0.53781512605042014</v>
       </c>
       <c r="T2">
-        <v>0.87735849056603776</v>
+        <v>0.86428571428571432</v>
       </c>
       <c r="U2">
-        <v>0.78846153846153844</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V2">
-        <v>0.79090909090909089</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="W2">
-        <v>0.91919191919191923</v>
+        <v>0.88970588235294112</v>
       </c>
       <c r="X2">
-        <v>0.85915492957746475</v>
+        <v>0.89928057553956831</v>
       </c>
       <c r="Y2">
-        <v>0.71508379888268159</v>
+        <v>0.8125</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.79562043795620441</v>
       </c>
       <c r="AA2">
-        <v>0.91588785046728971</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="AB2">
-        <v>0.67741935483870963</v>
+        <v>0.6875</v>
       </c>
       <c r="AC2">
-        <v>0.92270531400966183</v>
+        <v>0.88811188811188813</v>
       </c>
       <c r="AD2">
-        <v>0.4885057471264368</v>
+        <v>0.48695652173913045</v>
       </c>
       <c r="AE2">
-        <v>0.66210045662100458</v>
+        <v>0.70547945205479456</v>
       </c>
       <c r="AF2">
-        <v>0.83783783783783783</v>
+        <v>0.86206896551724133</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -680,97 +680,97 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.74285714285714288</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8660714285714286</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="E3">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="F3">
-        <v>0.90476190476190477</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G3">
-        <v>0.76363636363636367</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="H3">
-        <v>0.73076923076923073</v>
+        <v>0.69148936170212771</v>
       </c>
       <c r="I3">
-        <v>0.82242990654205606</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="J3">
-        <v>0.70833333333333337</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="K3">
-        <v>0.66346153846153844</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="L3">
-        <v>0.67592592592592593</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="M3">
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="N3">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="O3">
+        <v>0.72289156626506024</v>
+      </c>
+      <c r="P3">
+        <v>0.70526315789473681</v>
+      </c>
+      <c r="Q3">
+        <v>0.7078651685393258</v>
+      </c>
+      <c r="R3">
         <v>0.75</v>
       </c>
-      <c r="N3">
-        <v>0.73148148148148151</v>
-      </c>
-      <c r="O3">
-        <v>0.74</v>
-      </c>
-      <c r="P3">
-        <v>0.69724770642201839</v>
-      </c>
-      <c r="Q3">
-        <v>0.68</v>
-      </c>
-      <c r="R3">
-        <v>0.76767676767676762</v>
-      </c>
       <c r="S3">
-        <v>0.65217391304347827</v>
+        <v>0.76712328767123283</v>
       </c>
       <c r="T3">
-        <v>0.78504672897196259</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="U3">
-        <v>0.73786407766990292</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V3">
-        <v>0.7567567567567568</v>
+        <v>0.75789473684210529</v>
       </c>
       <c r="W3">
-        <v>0.7021276595744681</v>
+        <v>0.68235294117647061</v>
       </c>
       <c r="X3">
-        <v>0.75238095238095237</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="Y3">
-        <v>0.6875</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="Z3">
-        <v>0.7289719626168224</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="AA3">
-        <v>0.76363636363636367</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="AB3">
-        <v>0.82727272727272727</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="AC3">
-        <v>0.73786407766990292</v>
+        <v>0.68478260869565222</v>
       </c>
       <c r="AD3">
-        <v>0.759493670886076</v>
+        <v>0.75384615384615383</v>
       </c>
       <c r="AE3">
-        <v>0.8214285714285714</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="AF3">
-        <v>0.82727272727272727</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -778,97 +778,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6607142857142857</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C4">
-        <v>0.8660714285714286</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.85321100917431192</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="F4">
-        <v>0.88288288288288286</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="G4">
-        <v>0.68421052631578949</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="H4">
-        <v>0.65137614678899081</v>
+        <v>0.67021276595744683</v>
       </c>
       <c r="I4">
-        <v>0.72972972972972971</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="J4">
-        <v>0.6310679611650486</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="K4">
-        <v>0.59259259259259256</v>
+        <v>0.60439560439560436</v>
       </c>
       <c r="L4">
-        <v>0.6339285714285714</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="M4">
-        <v>0.73873873873873874</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="N4">
-        <v>0.66086956521739126</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="O4">
-        <v>0.66981132075471694</v>
+        <v>0.66265060240963858</v>
       </c>
       <c r="P4">
-        <v>0.74561403508771928</v>
+        <v>0.77894736842105261</v>
       </c>
       <c r="Q4">
-        <v>0.69230769230769229</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="R4">
-        <v>0.68932038834951459</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="S4">
-        <v>0.62886597938144329</v>
+        <v>0.72602739726027399</v>
       </c>
       <c r="T4">
-        <v>0.74561403508771928</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="U4">
-        <v>0.70909090909090911</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="V4">
-        <v>0.76271186440677963</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="W4">
-        <v>0.63636363636363635</v>
+        <v>0.63529411764705879</v>
       </c>
       <c r="X4">
-        <v>0.6696428571428571</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="Y4">
-        <v>0.70873786407766992</v>
+        <v>0.75308641975308643</v>
       </c>
       <c r="Z4">
-        <v>0.7232142857142857</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="AA4">
-        <v>0.66086956521739126</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="AB4">
-        <v>0.76068376068376065</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="AC4">
-        <v>0.65420560747663548</v>
+        <v>0.64130434782608692</v>
       </c>
       <c r="AD4">
-        <v>0.7857142857142857</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="AE4">
-        <v>0.80508474576271183</v>
+        <v>0.77894736842105261</v>
       </c>
       <c r="AF4">
-        <v>0.76923076923076927</v>
+        <v>0.71578947368421053</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -876,97 +876,97 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.68627450980392157</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="C5">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
-        <v>0.85321100917431192</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.83495145631067957</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="G5">
-        <v>0.73584905660377353</v>
+        <v>0.8</v>
       </c>
       <c r="H5">
-        <v>0.68</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="I5">
-        <v>0.77450980392156865</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="J5">
-        <v>0.65625</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="K5">
-        <v>0.63636363636363635</v>
+        <v>0.71264367816091956</v>
       </c>
       <c r="L5">
-        <v>0.67307692307692313</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="M5">
-        <v>0.71844660194174759</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="N5">
-        <v>0.66355140186915884</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="O5">
-        <v>0.65979381443298968</v>
+        <v>0.73417721518987344</v>
       </c>
       <c r="P5">
-        <v>0.68224299065420557</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="Q5">
-        <v>0.73469387755102045</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="R5">
-        <v>0.70707070707070707</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="S5">
-        <v>0.7078651685393258</v>
+        <v>0.78873239436619713</v>
       </c>
       <c r="T5">
-        <v>0.72115384615384615</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="U5">
-        <v>0.71287128712871284</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="V5">
-        <v>0.73148148148148151</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="W5">
-        <v>0.67032967032967028</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="X5">
-        <v>0.67647058823529416</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Y5">
-        <v>0.7021276595744681</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="Z5">
-        <v>0.73786407766990292</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="AA5">
-        <v>0.70754716981132071</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="AB5">
-        <v>0.76635514018691586</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="AC5">
-        <v>0.69696969696969702</v>
+        <v>0.71590909090909094</v>
       </c>
       <c r="AD5">
-        <v>0.74358974358974361</v>
+        <v>0.71875</v>
       </c>
       <c r="AE5">
-        <v>0.74311926605504586</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AF5">
-        <v>0.74766355140186913</v>
+        <v>0.78021978021978022</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -974,97 +974,97 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.63809523809523805</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C6">
-        <v>0.90476190476190477</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="D6">
-        <v>0.88288288288288286</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="E6">
-        <v>0.83495145631067957</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.69158878504672894</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H6">
-        <v>0.67961165048543692</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="I6">
-        <v>0.78846153846153844</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="J6">
-        <v>0.64583333333333337</v>
+        <v>0.67948717948717952</v>
       </c>
       <c r="K6">
-        <v>0.62376237623762376</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L6">
-        <v>0.63809523809523805</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="M6">
-        <v>0.69230769230769229</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="N6">
-        <v>0.69724770642201839</v>
+        <v>0.8</v>
       </c>
       <c r="O6">
-        <v>0.65656565656565657</v>
+        <v>0.68354430379746833</v>
       </c>
       <c r="P6">
-        <v>0.7289719626168224</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="Q6">
-        <v>0.64948453608247425</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="R6">
-        <v>0.68367346938775508</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="S6">
-        <v>0.65934065934065933</v>
+        <v>0.78873239436619713</v>
       </c>
       <c r="T6">
-        <v>0.7570093457943925</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="U6">
-        <v>0.69523809523809521</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="V6">
-        <v>0.70270270270270274</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="W6">
-        <v>0.62365591397849462</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X6">
-        <v>0.65714285714285714</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="Y6">
-        <v>0.68041237113402064</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="Z6">
-        <v>0.71153846153846156</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="AA6">
-        <v>0.67592592592592593</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="AB6">
-        <v>0.78181818181818186</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="AC6">
-        <v>0.65346534653465349</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="AD6">
-        <v>0.759493670886076</v>
+        <v>0.78688524590163933</v>
       </c>
       <c r="AE6">
-        <v>0.78378378378378377</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="AF6">
-        <v>0.76576576576576572</v>
+        <v>0.73626373626373631</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1072,97 +1072,97 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.87962962962962965</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="C7">
-        <v>0.76363636363636367</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="D7">
-        <v>0.68421052631578949</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="E7">
-        <v>0.73584905660377353</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>0.69158878504672894</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.87962962962962965</v>
+        <v>0.87234042553191493</v>
       </c>
       <c r="I7">
-        <v>0.70642201834862384</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="J7">
-        <v>0.85</v>
+        <v>0.91566265060240959</v>
       </c>
       <c r="K7">
-        <v>0.80373831775700932</v>
+        <v>0.87912087912087911</v>
       </c>
       <c r="L7">
-        <v>0.77477477477477474</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="M7">
-        <v>0.76635514018691586</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="N7">
-        <v>0.73873873873873874</v>
+        <v>0.80851063829787229</v>
       </c>
       <c r="O7">
-        <v>0.80769230769230771</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P7">
-        <v>0.61061946902654862</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="Q7">
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="R7">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="S7">
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="T7">
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="U7">
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="V7">
         <v>0.8</v>
       </c>
-      <c r="R7">
-        <v>0.94174757281553401</v>
-      </c>
-      <c r="S7">
-        <v>0.58762886597938147</v>
-      </c>
-      <c r="T7">
-        <v>0.82727272727272727</v>
-      </c>
-      <c r="U7">
-        <v>0.78301886792452835</v>
-      </c>
-      <c r="V7">
-        <v>0.81578947368421051</v>
-      </c>
       <c r="W7">
-        <v>0.90816326530612246</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="X7">
-        <v>0.86111111111111116</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="Y7">
-        <v>0.7</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="Z7">
-        <v>0.71296296296296291</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="AA7">
-        <v>0.86842105263157898</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="AB7">
-        <v>0.66371681415929207</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="AC7">
-        <v>0.89719626168224298</v>
+        <v>0.88043478260869568</v>
       </c>
       <c r="AD7">
-        <v>0.61904761904761907</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="AE7">
-        <v>0.71304347826086956</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="AF7">
-        <v>0.83185840707964598</v>
+        <v>0.86315789473684212</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1170,97 +1170,97 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.81553398058252424</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="C8">
-        <v>0.73076923076923073</v>
+        <v>0.69148936170212771</v>
       </c>
       <c r="D8">
-        <v>0.65137614678899081</v>
+        <v>0.67021276595744683</v>
       </c>
       <c r="E8">
-        <v>0.68</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="F8">
-        <v>0.67961165048543692</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="G8">
-        <v>0.87962962962962965</v>
+        <v>0.87234042553191493</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.76146788990825687</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="J8">
-        <v>0.79512195121951224</v>
+        <v>0.81428571428571428</v>
       </c>
       <c r="K8">
-        <v>0.82038834951456308</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L8">
-        <v>0.76818181818181819</v>
+        <v>0.80124223602484468</v>
       </c>
       <c r="M8">
-        <v>0.79342723004694837</v>
+        <v>0.83647798742138368</v>
       </c>
       <c r="N8">
-        <v>0.72727272727272729</v>
+        <v>0.78125</v>
       </c>
       <c r="O8">
-        <v>0.79104477611940294</v>
+        <v>0.8</v>
       </c>
       <c r="P8">
-        <v>0.60538116591928248</v>
+        <v>0.63580246913580252</v>
       </c>
       <c r="Q8">
-        <v>0.7846153846153846</v>
+        <v>0.80136986301369861</v>
       </c>
       <c r="R8">
-        <v>0.82233502538071068</v>
+        <v>0.82170542635658916</v>
       </c>
       <c r="S8">
-        <v>0.63316582914572861</v>
+        <v>0.63565891472868219</v>
       </c>
       <c r="T8">
-        <v>0.78504672897196259</v>
+        <v>0.82781456953642385</v>
       </c>
       <c r="U8">
-        <v>0.79342723004694837</v>
+        <v>0.84397163120567376</v>
       </c>
       <c r="V8">
-        <v>0.7232142857142857</v>
+        <v>0.74691358024691357</v>
       </c>
       <c r="W8">
-        <v>0.79024390243902443</v>
+        <v>0.83443708609271527</v>
       </c>
       <c r="X8">
-        <v>0.78240740740740744</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="Y8">
-        <v>0.70108695652173914</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="Z8">
-        <v>0.72549019607843135</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AA8">
-        <v>0.80180180180180183</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="AB8">
-        <v>0.70454545454545459</v>
+        <v>0.72955974842767291</v>
       </c>
       <c r="AC8">
-        <v>0.82464454976303314</v>
+        <v>0.83647798742138368</v>
       </c>
       <c r="AD8">
-        <v>0.54802259887005644</v>
+        <v>0.59842519685039375</v>
       </c>
       <c r="AE8">
-        <v>0.71300448430493268</v>
+        <v>0.80124223602484468</v>
       </c>
       <c r="AF8">
-        <v>0.79629629629629628</v>
+        <v>0.82105263157894737</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1268,97 +1268,97 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.69953051643192488</v>
+        <v>0.75172413793103443</v>
       </c>
       <c r="C9">
-        <v>0.82242990654205606</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="D9">
-        <v>0.72972972972972971</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="E9">
-        <v>0.77450980392156865</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="F9">
-        <v>0.78846153846153844</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="G9">
-        <v>0.70642201834862384</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="H9">
-        <v>0.76146788990825687</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.68691588785046731</v>
+        <v>0.71724137931034482</v>
       </c>
       <c r="K9">
-        <v>0.74528301886792447</v>
+        <v>0.80689655172413788</v>
       </c>
       <c r="L9">
-        <v>0.74458874458874458</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="M9">
-        <v>0.74311926605504586</v>
+        <v>0.77914110429447858</v>
       </c>
       <c r="N9">
-        <v>0.75109170305676853</v>
+        <v>0.76969696969696966</v>
       </c>
       <c r="O9">
-        <v>0.70531400966183577</v>
+        <v>0.79865771812080533</v>
       </c>
       <c r="P9">
-        <v>0.65217391304347827</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="Q9">
-        <v>0.68159203980099503</v>
+        <v>0.74496644295302017</v>
       </c>
       <c r="R9">
-        <v>0.72499999999999998</v>
+        <v>0.76335877862595425</v>
       </c>
       <c r="S9">
-        <v>0.63592233009708743</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="T9">
-        <v>0.72072072072072069</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="U9">
-        <v>0.78082191780821919</v>
+        <v>0.80689655172413788</v>
       </c>
       <c r="V9">
-        <v>0.70995670995671001</v>
+        <v>0.76506024096385539</v>
       </c>
       <c r="W9">
-        <v>0.71028037383177567</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="X9">
-        <v>0.7142857142857143</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="Y9">
-        <v>0.69680851063829785</v>
+        <v>0.77931034482758621</v>
       </c>
       <c r="Z9">
-        <v>0.74407582938388628</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>0.71052631578947367</v>
+        <v>0.74534161490683226</v>
       </c>
       <c r="AB9">
-        <v>0.78602620087336239</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="AC9">
-        <v>0.72398190045248867</v>
+        <v>0.76073619631901845</v>
       </c>
       <c r="AD9">
-        <v>0.64324324324324322</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="AE9">
-        <v>0.70869565217391306</v>
+        <v>0.80606060606060603</v>
       </c>
       <c r="AF9">
-        <v>0.70909090909090911</v>
+        <v>0.75789473684210529</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1366,97 +1366,97 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.90196078431372551</v>
+        <v>0.921875</v>
       </c>
       <c r="C10">
-        <v>0.70833333333333337</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="D10">
-        <v>0.6310679611650486</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="E10">
-        <v>0.65625</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="F10">
-        <v>0.64583333333333337</v>
+        <v>0.67948717948717952</v>
       </c>
       <c r="G10">
-        <v>0.85</v>
+        <v>0.91566265060240959</v>
       </c>
       <c r="H10">
-        <v>0.79512195121951224</v>
+        <v>0.81428571428571428</v>
       </c>
       <c r="I10">
-        <v>0.68691588785046731</v>
+        <v>0.71724137931034482</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.86432160804020097</v>
+        <v>0.872</v>
       </c>
       <c r="L10">
-        <v>0.82488479262672809</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="M10">
-        <v>0.70283018867924529</v>
+        <v>0.75524475524475521</v>
       </c>
       <c r="N10">
-        <v>0.7366071428571429</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="O10">
-        <v>0.80952380952380953</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="P10">
-        <v>0.5339366515837104</v>
+        <v>0.56849315068493156</v>
       </c>
       <c r="Q10">
-        <v>0.80512820512820515</v>
+        <v>0.82835820895522383</v>
       </c>
       <c r="R10">
-        <v>0.859375</v>
+        <v>0.87068965517241381</v>
       </c>
       <c r="S10">
-        <v>0.57635467980295563</v>
+        <v>0.58196721311475408</v>
       </c>
       <c r="T10">
-        <v>0.85116279069767442</v>
+        <v>0.85507246376811596</v>
       </c>
       <c r="U10">
-        <v>0.75471698113207553</v>
+        <v>0.80158730158730163</v>
       </c>
       <c r="V10">
-        <v>0.73094170403587444</v>
+        <v>0.79452054794520544</v>
       </c>
       <c r="W10">
-        <v>0.87081339712918659</v>
+        <v>0.86896551724137927</v>
       </c>
       <c r="X10">
-        <v>0.80821917808219179</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="Y10">
-        <v>0.67368421052631577</v>
+        <v>0.77372262773722633</v>
       </c>
       <c r="Z10">
-        <v>0.7277227722772277</v>
+        <v>0.75177304964539005</v>
       </c>
       <c r="AA10">
-        <v>0.87155963302752293</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="AB10">
-        <v>0.70588235294117652</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="AC10">
-        <v>0.88516746411483249</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="AD10">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AE10">
-        <v>0.68468468468468469</v>
+        <v>0.73793103448275865</v>
       </c>
       <c r="AF10">
-        <v>0.79411764705882348</v>
+        <v>0.85542168674698793</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1464,97 +1464,97 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.88</v>
+        <v>0.921875</v>
       </c>
       <c r="C11">
-        <v>0.66346153846153844</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="D11">
-        <v>0.59259259259259256</v>
+        <v>0.60439560439560436</v>
       </c>
       <c r="E11">
-        <v>0.63636363636363635</v>
+        <v>0.71264367816091956</v>
       </c>
       <c r="F11">
-        <v>0.62376237623762376</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11">
-        <v>0.80373831775700932</v>
+        <v>0.87912087912087911</v>
       </c>
       <c r="H11">
-        <v>0.82038834951456308</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="I11">
-        <v>0.74528301886792447</v>
+        <v>0.80689655172413788</v>
       </c>
       <c r="J11">
-        <v>0.86432160804020097</v>
+        <v>0.872</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.82159624413145538</v>
+        <v>0.77931034482758621</v>
       </c>
       <c r="M11">
-        <v>0.73529411764705888</v>
+        <v>0.76223776223776218</v>
       </c>
       <c r="N11">
-        <v>0.73239436619718312</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="O11">
-        <v>0.81025641025641026</v>
+        <v>0.82442748091603058</v>
       </c>
       <c r="P11">
-        <v>0.52777777777777779</v>
+        <v>0.58904109589041098</v>
       </c>
       <c r="Q11">
-        <v>0.78191489361702127</v>
+        <v>0.8</v>
       </c>
       <c r="R11">
-        <v>0.84536082474226804</v>
+        <v>0.85123966942148765</v>
       </c>
       <c r="S11">
-        <v>0.62176165803108807</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="T11">
-        <v>0.86057692307692313</v>
+        <v>0.84671532846715325</v>
       </c>
       <c r="U11">
-        <v>0.77450980392156865</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="V11">
-        <v>0.7407407407407407</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="W11">
-        <v>0.86363636363636365</v>
+        <v>0.83088235294117652</v>
       </c>
       <c r="X11">
-        <v>0.81428571428571428</v>
+        <v>0.8848920863309353</v>
       </c>
       <c r="Y11">
-        <v>0.71022727272727271</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="Z11">
-        <v>0.73737373737373735</v>
+        <v>0.81021897810218979</v>
       </c>
       <c r="AA11">
-        <v>0.89302325581395348</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="AB11">
-        <v>0.68544600938967137</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="AC11">
-        <v>0.87745098039215685</v>
+        <v>0.81690140845070425</v>
       </c>
       <c r="AD11">
-        <v>0.50289017341040465</v>
+        <v>0.5625</v>
       </c>
       <c r="AE11">
-        <v>0.66046511627906979</v>
+        <v>0.71724137931034482</v>
       </c>
       <c r="AF11">
-        <v>0.76635514018691586</v>
+        <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1562,97 +1562,97 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8046511627906977</v>
+        <v>0.80821917808219179</v>
       </c>
       <c r="C12">
-        <v>0.67592592592592593</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="D12">
-        <v>0.6339285714285714</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="E12">
-        <v>0.67307692307692313</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="F12">
-        <v>0.63809523809523805</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="G12">
-        <v>0.77477477477477474</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="H12">
-        <v>0.76818181818181819</v>
+        <v>0.80124223602484468</v>
       </c>
       <c r="I12">
-        <v>0.74458874458874458</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="J12">
-        <v>0.82488479262672809</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="K12">
-        <v>0.82159624413145538</v>
+        <v>0.77931034482758621</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.73303167420814475</v>
+        <v>0.81097560975609762</v>
       </c>
       <c r="N12">
-        <v>0.74568965517241381</v>
+        <v>0.75301204819277112</v>
       </c>
       <c r="O12">
-        <v>0.74881516587677721</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="P12">
-        <v>0.57081545064377681</v>
+        <v>0.6227544910179641</v>
       </c>
       <c r="Q12">
-        <v>0.74146341463414633</v>
+        <v>0.78</v>
       </c>
       <c r="R12">
-        <v>0.76847290640394084</v>
+        <v>0.77099236641221369</v>
       </c>
       <c r="S12">
-        <v>0.62200956937799046</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="T12">
-        <v>0.76</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="U12">
-        <v>0.76576576576576572</v>
+        <v>0.81506849315068497</v>
       </c>
       <c r="V12">
-        <v>0.72222222222222221</v>
+        <v>0.77245508982035926</v>
       </c>
       <c r="W12">
-        <v>0.8018433179723502</v>
+        <v>0.79617834394904463</v>
       </c>
       <c r="X12">
-        <v>0.74008810572687223</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="Y12">
-        <v>0.65789473684210531</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="Z12">
-        <v>0.7009345794392523</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="AA12">
-        <v>0.78787878787878785</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="AB12">
-        <v>0.74568965517241381</v>
+        <v>0.72121212121212119</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>0.79268292682926833</v>
       </c>
       <c r="AD12">
-        <v>0.52659574468085102</v>
+        <v>0.62595419847328249</v>
       </c>
       <c r="AE12">
-        <v>0.69658119658119655</v>
+        <v>0.76506024096385539</v>
       </c>
       <c r="AF12">
-        <v>0.7567567567567568</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1660,97 +1660,97 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.75480769230769229</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="D13">
-        <v>0.73873873873873874</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="E13">
-        <v>0.71844660194174759</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="F13">
-        <v>0.69230769230769229</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="G13">
-        <v>0.76635514018691586</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="H13">
-        <v>0.79342723004694837</v>
+        <v>0.83647798742138368</v>
       </c>
       <c r="I13">
-        <v>0.74311926605504586</v>
+        <v>0.77914110429447858</v>
       </c>
       <c r="J13">
-        <v>0.70283018867924529</v>
+        <v>0.75524475524475521</v>
       </c>
       <c r="K13">
-        <v>0.73529411764705888</v>
+        <v>0.76223776223776218</v>
       </c>
       <c r="L13">
-        <v>0.73303167420814475</v>
+        <v>0.81097560975609762</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.76888888888888884</v>
+        <v>0.78527607361963192</v>
       </c>
       <c r="O13">
-        <v>0.77669902912621358</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="P13">
-        <v>0.67841409691629961</v>
+        <v>0.67878787878787883</v>
       </c>
       <c r="Q13">
-        <v>0.74242424242424243</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="R13">
-        <v>0.7846153846153846</v>
+        <v>0.75968992248062017</v>
       </c>
       <c r="S13">
-        <v>0.66500000000000004</v>
+        <v>0.65648854961832059</v>
       </c>
       <c r="T13">
-        <v>0.75113122171945701</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="U13">
-        <v>0.74193548387096775</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="V13">
-        <v>0.75438596491228072</v>
+        <v>0.76969696969696966</v>
       </c>
       <c r="W13">
-        <v>0.74271844660194175</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="X13">
-        <v>0.75225225225225223</v>
+        <v>0.80891719745222934</v>
       </c>
       <c r="Y13">
-        <v>0.71657754010695185</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="Z13">
-        <v>0.71014492753623193</v>
+        <v>0.73376623376623373</v>
       </c>
       <c r="AA13">
-        <v>0.73542600896860988</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="AB13">
-        <v>0.77333333333333332</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AC13">
-        <v>0.74528301886792447</v>
+        <v>0.74534161490683226</v>
       </c>
       <c r="AD13">
-        <v>0.67597765363128492</v>
+        <v>0.671875</v>
       </c>
       <c r="AE13">
-        <v>0.80701754385964908</v>
+        <v>0.84146341463414631</v>
       </c>
       <c r="AF13">
-        <v>0.81818181818181823</v>
+        <v>0.84946236559139787</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1758,97 +1758,97 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.76605504587155959</v>
+        <v>0.78767123287671237</v>
       </c>
       <c r="C14">
-        <v>0.73148148148148151</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="D14">
-        <v>0.66086956521739126</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="E14">
-        <v>0.66355140186915884</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="F14">
-        <v>0.69724770642201839</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
-        <v>0.73873873873873874</v>
+        <v>0.80851063829787229</v>
       </c>
       <c r="H14">
-        <v>0.72727272727272729</v>
+        <v>0.78125</v>
       </c>
       <c r="I14">
-        <v>0.75109170305676853</v>
+        <v>0.76969696969696966</v>
       </c>
       <c r="J14">
-        <v>0.7366071428571429</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="K14">
-        <v>0.73239436619718312</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="L14">
-        <v>0.74568965517241381</v>
+        <v>0.75301204819277112</v>
       </c>
       <c r="M14">
-        <v>0.76888888888888884</v>
+        <v>0.78527607361963192</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.7429906542056075</v>
+        <v>0.77181208053691275</v>
       </c>
       <c r="P14">
-        <v>0.64529914529914534</v>
+        <v>0.68072289156626509</v>
       </c>
       <c r="Q14">
-        <v>0.73076923076923073</v>
+        <v>0.71812080536912748</v>
       </c>
       <c r="R14">
-        <v>0.75242718446601942</v>
+        <v>0.79389312977099236</v>
       </c>
       <c r="S14">
-        <v>0.589622641509434</v>
+        <v>0.66917293233082709</v>
       </c>
       <c r="T14">
-        <v>0.73799126637554591</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="U14">
-        <v>0.76651982378854622</v>
+        <v>0.8</v>
       </c>
       <c r="V14">
-        <v>0.73109243697478987</v>
+        <v>0.75903614457831325</v>
       </c>
       <c r="W14">
-        <v>0.74537037037037035</v>
+        <v>0.76282051282051277</v>
       </c>
       <c r="X14">
-        <v>0.74458874458874458</v>
+        <v>0.78481012658227844</v>
       </c>
       <c r="Y14">
-        <v>0.68717948717948718</v>
+        <v>0.75172413793103443</v>
       </c>
       <c r="Z14">
-        <v>0.72558139534883725</v>
+        <v>0.76774193548387093</v>
       </c>
       <c r="AA14">
-        <v>0.75431034482758619</v>
+        <v>0.77018633540372672</v>
       </c>
       <c r="AB14">
-        <v>0.77542372881355937</v>
+        <v>0.76219512195121952</v>
       </c>
       <c r="AC14">
-        <v>0.74439461883408076</v>
+        <v>0.76687116564417179</v>
       </c>
       <c r="AD14">
-        <v>0.63492063492063489</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="AE14">
-        <v>0.72995780590717296</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="AF14">
-        <v>0.78947368421052633</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1856,97 +1856,97 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.83499999999999996</v>
+        <v>0.84732824427480913</v>
       </c>
       <c r="C15">
-        <v>0.74</v>
+        <v>0.72289156626506024</v>
       </c>
       <c r="D15">
-        <v>0.66981132075471694</v>
+        <v>0.66265060240963858</v>
       </c>
       <c r="E15">
-        <v>0.65979381443298968</v>
+        <v>0.73417721518987344</v>
       </c>
       <c r="F15">
-        <v>0.65656565656565657</v>
+        <v>0.68354430379746833</v>
       </c>
       <c r="G15">
-        <v>0.80769230769230771</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H15">
-        <v>0.79104477611940294</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
-        <v>0.70531400966183577</v>
+        <v>0.79865771812080533</v>
       </c>
       <c r="J15">
-        <v>0.80952380952380953</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="K15">
-        <v>0.81025641025641026</v>
+        <v>0.82442748091603058</v>
       </c>
       <c r="L15">
-        <v>0.74881516587677721</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="M15">
-        <v>0.77669902912621358</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="N15">
-        <v>0.7429906542056075</v>
+        <v>0.77181208053691275</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.60280373831775702</v>
+        <v>0.64238410596026485</v>
       </c>
       <c r="Q15">
-        <v>0.78835978835978837</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="R15">
-        <v>0.83243243243243248</v>
+        <v>0.83760683760683763</v>
       </c>
       <c r="S15">
-        <v>0.57435897435897432</v>
+        <v>0.62601626016260159</v>
       </c>
       <c r="T15">
-        <v>0.83253588516746413</v>
+        <v>0.87857142857142856</v>
       </c>
       <c r="U15">
-        <v>0.73786407766990292</v>
+        <v>0.7862595419847328</v>
       </c>
       <c r="V15">
-        <v>0.77419354838709675</v>
+        <v>0.80132450331125826</v>
       </c>
       <c r="W15">
-        <v>0.86341463414634145</v>
+        <v>0.84</v>
       </c>
       <c r="X15">
-        <v>0.83098591549295775</v>
+        <v>0.87671232876712324</v>
       </c>
       <c r="Y15">
-        <v>0.75</v>
+        <v>0.8014184397163121</v>
       </c>
       <c r="Z15">
-        <v>0.68527918781725883</v>
+        <v>0.73049645390070927</v>
       </c>
       <c r="AA15">
-        <v>0.863849765258216</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB15">
-        <v>0.70560747663551404</v>
+        <v>0.70945945945945943</v>
       </c>
       <c r="AC15">
-        <v>0.84653465346534651</v>
+        <v>0.85810810810810811</v>
       </c>
       <c r="AD15">
-        <v>0.55932203389830504</v>
+        <v>0.6</v>
       </c>
       <c r="AE15">
-        <v>0.72350230414746541</v>
+        <v>0.78</v>
       </c>
       <c r="AF15">
-        <v>0.81904761904761902</v>
+        <v>0.86904761904761907</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1954,97 +1954,97 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.50230414746543783</v>
+        <v>0.50340136054421769</v>
       </c>
       <c r="C16">
-        <v>0.69724770642201839</v>
+        <v>0.70526315789473681</v>
       </c>
       <c r="D16">
-        <v>0.74561403508771928</v>
+        <v>0.77894736842105261</v>
       </c>
       <c r="E16">
-        <v>0.68224299065420557</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="F16">
-        <v>0.7289719626168224</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="G16">
-        <v>0.61061946902654862</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="H16">
-        <v>0.60538116591928248</v>
+        <v>0.63580246913580252</v>
       </c>
       <c r="I16">
-        <v>0.65217391304347827</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="J16">
-        <v>0.5339366515837104</v>
+        <v>0.56849315068493156</v>
       </c>
       <c r="K16">
-        <v>0.52777777777777779</v>
+        <v>0.58904109589041098</v>
       </c>
       <c r="L16">
-        <v>0.57081545064377681</v>
+        <v>0.6227544910179641</v>
       </c>
       <c r="M16">
-        <v>0.67841409691629961</v>
+        <v>0.67878787878787883</v>
       </c>
       <c r="N16">
-        <v>0.64529914529914534</v>
+        <v>0.68072289156626509</v>
       </c>
       <c r="O16">
-        <v>0.60280373831775702</v>
+        <v>0.64238410596026485</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.55825242718446599</v>
+        <v>0.58278145695364236</v>
       </c>
       <c r="R16">
-        <v>0.56310679611650483</v>
+        <v>0.62878787878787878</v>
       </c>
       <c r="S16">
-        <v>0.69339622641509435</v>
+        <v>0.70149253731343286</v>
       </c>
       <c r="T16">
-        <v>0.60526315789473684</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="U16">
-        <v>0.60444444444444445</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="V16">
-        <v>0.61603375527426163</v>
+        <v>0.61309523809523814</v>
       </c>
       <c r="W16">
-        <v>0.52534562211981561</v>
+        <v>0.57324840764331209</v>
       </c>
       <c r="X16">
-        <v>0.55217391304347829</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="Y16">
-        <v>0.609375</v>
+        <v>0.63265306122448983</v>
       </c>
       <c r="Z16">
-        <v>0.61395348837209307</v>
+        <v>0.61783439490445857</v>
       </c>
       <c r="AA16">
-        <v>0.5213675213675214</v>
+        <v>0.54601226993865026</v>
       </c>
       <c r="AB16">
-        <v>0.67094017094017089</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="AC16">
-        <v>0.5112107623318386</v>
+        <v>0.57317073170731703</v>
       </c>
       <c r="AD16">
-        <v>0.76190476190476186</v>
+        <v>0.77862595419847325</v>
       </c>
       <c r="AE16">
-        <v>0.74576271186440679</v>
+        <v>0.74251497005988021</v>
       </c>
       <c r="AF16">
-        <v>0.63716814159292035</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2052,97 +2052,97 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.86082474226804129</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C17">
-        <v>0.68</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="D17">
-        <v>0.69230769230769229</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="E17">
-        <v>0.73469387755102045</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="F17">
-        <v>0.64948453608247425</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G17">
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="H17">
+        <v>0.80136986301369861</v>
+      </c>
+      <c r="I17">
+        <v>0.74496644295302017</v>
+      </c>
+      <c r="J17">
+        <v>0.82835820895522383</v>
+      </c>
+      <c r="K17">
         <v>0.8</v>
       </c>
-      <c r="H17">
-        <v>0.7846153846153846</v>
-      </c>
-      <c r="I17">
-        <v>0.68159203980099503</v>
-      </c>
-      <c r="J17">
-        <v>0.80512820512820515</v>
-      </c>
-      <c r="K17">
-        <v>0.78191489361702127</v>
-      </c>
       <c r="L17">
-        <v>0.74146341463414633</v>
+        <v>0.78</v>
       </c>
       <c r="M17">
-        <v>0.74242424242424243</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="N17">
-        <v>0.73076923076923073</v>
+        <v>0.71812080536912748</v>
       </c>
       <c r="O17">
-        <v>0.78835978835978837</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="P17">
-        <v>0.55825242718446599</v>
+        <v>0.58278145695364236</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.85</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="S17">
-        <v>0.63243243243243241</v>
+        <v>0.62809917355371903</v>
       </c>
       <c r="T17">
-        <v>0.83582089552238803</v>
+        <v>0.85815602836879434</v>
       </c>
       <c r="U17">
-        <v>0.77272727272727271</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="V17">
-        <v>0.79047619047619044</v>
+        <v>0.76158940397350994</v>
       </c>
       <c r="W17">
-        <v>0.84293193717277481</v>
+        <v>0.81690140845070425</v>
       </c>
       <c r="X17">
-        <v>0.79802955665024633</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="Y17">
-        <v>0.77647058823529413</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="Z17">
-        <v>0.71859296482412061</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="AA17">
-        <v>0.8423645320197044</v>
+        <v>0.82876712328767121</v>
       </c>
       <c r="AB17">
-        <v>0.64563106796116509</v>
+        <v>0.65540540540540537</v>
       </c>
       <c r="AC17">
-        <v>0.82741116751269039</v>
+        <v>0.83673469387755106</v>
       </c>
       <c r="AD17">
-        <v>0.54037267080745344</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE17">
-        <v>0.70813397129186606</v>
+        <v>0.76</v>
       </c>
       <c r="AF17">
-        <v>0.80392156862745101</v>
+        <v>0.78888888888888886</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -2150,97 +2150,97 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.91052631578947374</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="C18">
-        <v>0.76767676767676762</v>
+        <v>0.75</v>
       </c>
       <c r="D18">
-        <v>0.68932038834951459</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="E18">
-        <v>0.70707070707070707</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="F18">
-        <v>0.68367346938775508</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="G18">
-        <v>0.94174757281553401</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H18">
-        <v>0.82233502538071068</v>
+        <v>0.82170542635658916</v>
       </c>
       <c r="I18">
-        <v>0.72499999999999998</v>
+        <v>0.76335877862595425</v>
       </c>
       <c r="J18">
-        <v>0.859375</v>
+        <v>0.87068965517241381</v>
       </c>
       <c r="K18">
-        <v>0.84536082474226804</v>
+        <v>0.85123966942148765</v>
       </c>
       <c r="L18">
-        <v>0.76847290640394084</v>
+        <v>0.77099236641221369</v>
       </c>
       <c r="M18">
-        <v>0.7846153846153846</v>
+        <v>0.75968992248062017</v>
       </c>
       <c r="N18">
-        <v>0.75242718446601942</v>
+        <v>0.79389312977099236</v>
       </c>
       <c r="O18">
-        <v>0.83243243243243248</v>
+        <v>0.83760683760683763</v>
       </c>
       <c r="P18">
-        <v>0.56310679611650483</v>
+        <v>0.62878787878787878</v>
       </c>
       <c r="Q18">
-        <v>0.85</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.60962566844919786</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="T18">
-        <v>0.8375634517766497</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="U18">
-        <v>0.78894472361809043</v>
+        <v>0.81739130434782614</v>
       </c>
       <c r="V18">
-        <v>0.78155339805825241</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="W18">
-        <v>0.93617021276595747</v>
+        <v>0.93495934959349591</v>
       </c>
       <c r="X18">
-        <v>0.84</v>
+        <v>0.87401574803149606</v>
       </c>
       <c r="Y18">
-        <v>0.72619047619047616</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="Z18">
-        <v>0.7142857142857143</v>
+        <v>0.76229508196721307</v>
       </c>
       <c r="AA18">
-        <v>0.88292682926829269</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="AB18">
-        <v>0.67487684729064035</v>
+        <v>0.70769230769230773</v>
       </c>
       <c r="AC18">
-        <v>0.92893401015228427</v>
+        <v>0.91538461538461535</v>
       </c>
       <c r="AD18">
-        <v>0.54705882352941182</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="AE18">
-        <v>0.70048309178743962</v>
+        <v>0.74045801526717558</v>
       </c>
       <c r="AF18">
-        <v>0.86274509803921573</v>
+        <v>0.83529411764705885</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2248,97 +2248,97 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.57435897435897432</v>
+        <v>0.53781512605042014</v>
       </c>
       <c r="C19">
+        <v>0.76712328767123283</v>
+      </c>
+      <c r="D19">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="E19">
+        <v>0.78873239436619713</v>
+      </c>
+      <c r="F19">
+        <v>0.78873239436619713</v>
+      </c>
+      <c r="G19">
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="H19">
+        <v>0.63565891472868219</v>
+      </c>
+      <c r="I19">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="J19">
+        <v>0.58196721311475408</v>
+      </c>
+      <c r="K19">
         <v>0.65217391304347827</v>
       </c>
-      <c r="D19">
-        <v>0.62886597938144329</v>
-      </c>
-      <c r="E19">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="F19">
-        <v>0.65934065934065933</v>
-      </c>
-      <c r="G19">
-        <v>0.58762886597938147</v>
-      </c>
-      <c r="H19">
-        <v>0.63316582914572861</v>
-      </c>
-      <c r="I19">
-        <v>0.63592233009708743</v>
-      </c>
-      <c r="J19">
-        <v>0.57635467980295563</v>
-      </c>
-      <c r="K19">
-        <v>0.62176165803108807</v>
-      </c>
       <c r="L19">
-        <v>0.62200956937799046</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="M19">
-        <v>0.66500000000000004</v>
+        <v>0.65648854961832059</v>
       </c>
       <c r="N19">
-        <v>0.589622641509434</v>
+        <v>0.66917293233082709</v>
       </c>
       <c r="O19">
-        <v>0.57435897435897432</v>
+        <v>0.62601626016260159</v>
       </c>
       <c r="P19">
-        <v>0.69339622641509435</v>
+        <v>0.70149253731343286</v>
       </c>
       <c r="Q19">
-        <v>0.63243243243243241</v>
+        <v>0.62809917355371903</v>
       </c>
       <c r="R19">
-        <v>0.60962566844919786</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.59605911330049266</v>
+        <v>0.61475409836065575</v>
       </c>
       <c r="U19">
-        <v>0.63184079601990051</v>
+        <v>0.67543859649122806</v>
       </c>
       <c r="V19">
-        <v>0.56132075471698117</v>
+        <v>0.59701492537313428</v>
       </c>
       <c r="W19">
-        <v>0.57868020304568524</v>
+        <v>0.59842519685039375</v>
       </c>
       <c r="X19">
-        <v>0.50970873786407767</v>
+        <v>0.57480314960629919</v>
       </c>
       <c r="Y19">
-        <v>0.57627118644067798</v>
+        <v>0.6</v>
       </c>
       <c r="Z19">
-        <v>0.62694300518134716</v>
+        <v>0.66935483870967738</v>
       </c>
       <c r="AA19">
-        <v>0.58373205741626799</v>
+        <v>0.62015503875968991</v>
       </c>
       <c r="AB19">
-        <v>0.67772511848341233</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
-        <v>0.57711442786069655</v>
+        <v>0.59541984732824427</v>
       </c>
       <c r="AD19">
-        <v>0.72</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="AE19">
-        <v>0.64928909952606639</v>
+        <v>0.72180451127819545</v>
       </c>
       <c r="AF19">
-        <v>0.60416666666666663</v>
+        <v>0.60810810810810811</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2346,97 +2346,97 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.87735849056603776</v>
+        <v>0.86428571428571432</v>
       </c>
       <c r="C20">
-        <v>0.78504672897196259</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="D20">
-        <v>0.74561403508771928</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="E20">
-        <v>0.72115384615384615</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="F20">
-        <v>0.7570093457943925</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="G20">
-        <v>0.82727272727272727</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="H20">
-        <v>0.78504672897196259</v>
+        <v>0.82781456953642385</v>
       </c>
       <c r="I20">
-        <v>0.72072072072072069</v>
+        <v>0.80519480519480524</v>
       </c>
       <c r="J20">
-        <v>0.85116279069767442</v>
+        <v>0.85507246376811596</v>
       </c>
       <c r="K20">
-        <v>0.86057692307692313</v>
+        <v>0.84671532846715325</v>
       </c>
       <c r="L20">
-        <v>0.76</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="M20">
-        <v>0.75113122171945701</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="N20">
-        <v>0.73799126637554591</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="O20">
-        <v>0.83253588516746413</v>
+        <v>0.87857142857142856</v>
       </c>
       <c r="P20">
-        <v>0.60526315789473684</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="Q20">
-        <v>0.83582089552238803</v>
+        <v>0.85815602836879434</v>
       </c>
       <c r="R20">
-        <v>0.8375634517766497</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="S20">
-        <v>0.59605911330049266</v>
+        <v>0.61475409836065575</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.73181818181818181</v>
+        <v>0.80740740740740746</v>
       </c>
       <c r="V20">
-        <v>0.78017241379310343</v>
+        <v>0.8141025641025641</v>
       </c>
       <c r="W20">
-        <v>0.85167464114832536</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="X20">
-        <v>0.83628318584070793</v>
+        <v>0.85810810810810811</v>
       </c>
       <c r="Y20">
-        <v>0.75531914893617025</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="Z20">
-        <v>0.75714285714285712</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="AA20">
-        <v>0.88495575221238942</v>
+        <v>0.88079470198675491</v>
       </c>
       <c r="AB20">
-        <v>0.67248908296943233</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="AC20">
-        <v>0.86046511627906974</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="AD20">
-        <v>0.55978260869565222</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="AE20">
-        <v>0.75757575757575757</v>
+        <v>0.79354838709677422</v>
       </c>
       <c r="AF20">
-        <v>0.82300884955752207</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2444,97 +2444,97 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.78846153846153844</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C21">
-        <v>0.73786407766990292</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D21">
-        <v>0.70909090909090911</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="E21">
-        <v>0.71287128712871284</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="F21">
-        <v>0.69523809523809521</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G21">
-        <v>0.78301886792452835</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="H21">
-        <v>0.79342723004694837</v>
+        <v>0.84397163120567376</v>
       </c>
       <c r="I21">
-        <v>0.78082191780821919</v>
+        <v>0.80689655172413788</v>
       </c>
       <c r="J21">
-        <v>0.75471698113207553</v>
+        <v>0.80158730158730163</v>
       </c>
       <c r="K21">
-        <v>0.77450980392156865</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="L21">
-        <v>0.76576576576576572</v>
+        <v>0.81506849315068497</v>
       </c>
       <c r="M21">
-        <v>0.74193548387096775</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="N21">
-        <v>0.76651982378854622</v>
+        <v>0.8</v>
       </c>
       <c r="O21">
-        <v>0.73786407766990292</v>
+        <v>0.7862595419847328</v>
       </c>
       <c r="P21">
-        <v>0.60444444444444445</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="Q21">
-        <v>0.77272727272727271</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="R21">
-        <v>0.78894472361809043</v>
+        <v>0.81739130434782614</v>
       </c>
       <c r="S21">
-        <v>0.63184079601990051</v>
+        <v>0.67543859649122806</v>
       </c>
       <c r="T21">
-        <v>0.73181818181818181</v>
+        <v>0.80740740740740746</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.76855895196506552</v>
+        <v>0.77551020408163263</v>
       </c>
       <c r="W21">
-        <v>0.78640776699029125</v>
+        <v>0.81617647058823528</v>
       </c>
       <c r="X21">
-        <v>0.77777777777777779</v>
+        <v>0.85314685314685312</v>
       </c>
       <c r="Y21">
-        <v>0.78378378378378377</v>
+        <v>0.81746031746031744</v>
       </c>
       <c r="Z21">
-        <v>0.75480769230769229</v>
+        <v>0.79562043795620441</v>
       </c>
       <c r="AA21">
-        <v>0.7589285714285714</v>
+        <v>0.80419580419580416</v>
       </c>
       <c r="AB21">
-        <v>0.75221238938053092</v>
+        <v>0.77241379310344827</v>
       </c>
       <c r="AC21">
-        <v>0.77830188679245282</v>
+        <v>0.81118881118881114</v>
       </c>
       <c r="AD21">
-        <v>0.60555555555555551</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="AE21">
-        <v>0.69868995633187769</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="AF21">
-        <v>0.75229357798165142</v>
+        <v>0.82051282051282048</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2542,97 +2542,97 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.79090909090909089</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C22">
-        <v>0.7567567567567568</v>
+        <v>0.75789473684210529</v>
       </c>
       <c r="D22">
-        <v>0.76271186440677963</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="E22">
-        <v>0.73148148148148151</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="F22">
-        <v>0.70270270270270274</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="G22">
-        <v>0.81578947368421051</v>
+        <v>0.8</v>
       </c>
       <c r="H22">
-        <v>0.7232142857142857</v>
+        <v>0.74691358024691357</v>
       </c>
       <c r="I22">
-        <v>0.70995670995671001</v>
+        <v>0.76506024096385539</v>
       </c>
       <c r="J22">
-        <v>0.73094170403587444</v>
+        <v>0.79452054794520544</v>
       </c>
       <c r="K22">
-        <v>0.7407407407407407</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="L22">
-        <v>0.72222222222222221</v>
+        <v>0.77245508982035926</v>
       </c>
       <c r="M22">
-        <v>0.75438596491228072</v>
+        <v>0.76969696969696966</v>
       </c>
       <c r="N22">
-        <v>0.73109243697478987</v>
+        <v>0.75903614457831325</v>
       </c>
       <c r="O22">
-        <v>0.77419354838709675</v>
+        <v>0.80132450331125826</v>
       </c>
       <c r="P22">
-        <v>0.61603375527426163</v>
+        <v>0.61309523809523814</v>
       </c>
       <c r="Q22">
-        <v>0.79047619047619044</v>
+        <v>0.76158940397350994</v>
       </c>
       <c r="R22">
-        <v>0.78155339805825241</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="S22">
-        <v>0.56132075471698117</v>
+        <v>0.59701492537313428</v>
       </c>
       <c r="T22">
-        <v>0.78017241379310343</v>
+        <v>0.8141025641025641</v>
       </c>
       <c r="U22">
-        <v>0.76855895196506552</v>
+        <v>0.77551020408163263</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.79357798165137616</v>
+        <v>0.80891719745222934</v>
       </c>
       <c r="X22">
-        <v>0.79148936170212769</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="Y22">
-        <v>0.76530612244897955</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="Z22">
-        <v>0.72146118721461183</v>
+        <v>0.76433121019108285</v>
       </c>
       <c r="AA22">
-        <v>0.79148936170212769</v>
+        <v>0.81595092024539873</v>
       </c>
       <c r="AB22">
-        <v>0.69747899159663862</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="AC22">
-        <v>0.78125</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="AD22">
-        <v>0.62631578947368416</v>
+        <v>0.58015267175572516</v>
       </c>
       <c r="AE22">
-        <v>0.73750000000000004</v>
+        <v>0.70658682634730541</v>
       </c>
       <c r="AF22">
-        <v>0.84615384615384615</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2640,97 +2640,97 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.91919191919191923</v>
+        <v>0.88970588235294112</v>
       </c>
       <c r="C23">
-        <v>0.7021276595744681</v>
+        <v>0.68235294117647061</v>
       </c>
       <c r="D23">
-        <v>0.63636363636363635</v>
+        <v>0.63529411764705879</v>
       </c>
       <c r="E23">
-        <v>0.67032967032967028</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="F23">
-        <v>0.62365591397849462</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G23">
-        <v>0.90816326530612246</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="H23">
-        <v>0.79024390243902443</v>
+        <v>0.83443708609271527</v>
       </c>
       <c r="I23">
-        <v>0.71028037383177567</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="J23">
-        <v>0.87081339712918659</v>
+        <v>0.86896551724137927</v>
       </c>
       <c r="K23">
-        <v>0.86363636363636365</v>
+        <v>0.83088235294117652</v>
       </c>
       <c r="L23">
-        <v>0.8018433179723502</v>
+        <v>0.79617834394904463</v>
       </c>
       <c r="M23">
-        <v>0.74271844660194175</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="N23">
-        <v>0.74537037037037035</v>
+        <v>0.76282051282051277</v>
       </c>
       <c r="O23">
-        <v>0.86341463414634145</v>
+        <v>0.84</v>
       </c>
       <c r="P23">
-        <v>0.52534562211981561</v>
+        <v>0.57324840764331209</v>
       </c>
       <c r="Q23">
-        <v>0.84293193717277481</v>
+        <v>0.81690140845070425</v>
       </c>
       <c r="R23">
-        <v>0.93617021276595747</v>
+        <v>0.93495934959349591</v>
       </c>
       <c r="S23">
-        <v>0.57868020304568524</v>
+        <v>0.59842519685039375</v>
       </c>
       <c r="T23">
-        <v>0.85167464114832536</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="U23">
-        <v>0.78640776699029125</v>
+        <v>0.81617647058823528</v>
       </c>
       <c r="V23">
-        <v>0.79357798165137616</v>
+        <v>0.80891719745222934</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0.863849765258216</v>
+        <v>0.86754966887417218</v>
       </c>
       <c r="Y23">
-        <v>0.74725274725274726</v>
+        <v>0.81379310344827582</v>
       </c>
       <c r="Z23">
-        <v>0.72864321608040206</v>
+        <v>0.76027397260273977</v>
       </c>
       <c r="AA23">
-        <v>0.91162790697674423</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.64651162790697669</v>
+        <v>0.67096774193548392</v>
       </c>
       <c r="AC23">
-        <v>0.91304347826086951</v>
+        <v>0.92258064516129035</v>
       </c>
       <c r="AD23">
-        <v>0.51630434782608692</v>
+        <v>0.56923076923076921</v>
       </c>
       <c r="AE23">
-        <v>0.68055555555555558</v>
+        <v>0.70512820512820518</v>
       </c>
       <c r="AF23">
-        <v>0.81632653061224492</v>
+        <v>0.80232558139534882</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -2738,97 +2738,97 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.85915492957746475</v>
+        <v>0.89928057553956831</v>
       </c>
       <c r="C24">
-        <v>0.75238095238095237</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="D24">
-        <v>0.6696428571428571</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="E24">
-        <v>0.67647058823529416</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="F24">
-        <v>0.65714285714285714</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="G24">
-        <v>0.86111111111111116</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="H24">
-        <v>0.78240740740740744</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="I24">
-        <v>0.7142857142857143</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="J24">
-        <v>0.80821917808219179</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="K24">
-        <v>0.81428571428571428</v>
+        <v>0.8848920863309353</v>
       </c>
       <c r="L24">
-        <v>0.74008810572687223</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="M24">
-        <v>0.75225225225225223</v>
+        <v>0.80891719745222934</v>
       </c>
       <c r="N24">
-        <v>0.74458874458874458</v>
+        <v>0.78481012658227844</v>
       </c>
       <c r="O24">
-        <v>0.83098591549295775</v>
+        <v>0.87671232876712324</v>
       </c>
       <c r="P24">
-        <v>0.55217391304347829</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="Q24">
-        <v>0.79802955665024633</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="R24">
-        <v>0.84</v>
+        <v>0.87401574803149606</v>
       </c>
       <c r="S24">
-        <v>0.50970873786407767</v>
+        <v>0.57480314960629919</v>
       </c>
       <c r="T24">
-        <v>0.83628318584070793</v>
+        <v>0.85810810810810811</v>
       </c>
       <c r="U24">
-        <v>0.77777777777777779</v>
+        <v>0.85314685314685312</v>
       </c>
       <c r="V24">
-        <v>0.79148936170212769</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="W24">
-        <v>0.863849765258216</v>
+        <v>0.86754966887417218</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.75647668393782386</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="Z24">
-        <v>0.76525821596244137</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="AA24">
-        <v>0.82456140350877194</v>
+        <v>0.86451612903225805</v>
       </c>
       <c r="AB24">
-        <v>0.67099567099567103</v>
+        <v>0.70063694267515919</v>
       </c>
       <c r="AC24">
-        <v>0.84331797235023043</v>
+        <v>0.87820512820512819</v>
       </c>
       <c r="AD24">
-        <v>0.5376344086021505</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE24">
-        <v>0.71673819742489275</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="AF24">
-        <v>0.81981981981981977</v>
+        <v>0.8764044943820225</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2836,97 +2836,97 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.71508379888268159</v>
+        <v>0.8125</v>
       </c>
       <c r="C25">
-        <v>0.6875</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="D25">
-        <v>0.70873786407766992</v>
+        <v>0.75308641975308643</v>
       </c>
       <c r="E25">
-        <v>0.7021276595744681</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="F25">
-        <v>0.68041237113402064</v>
+        <v>0.74025974025974028</v>
       </c>
       <c r="G25">
-        <v>0.7</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="H25">
-        <v>0.70108695652173914</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="I25">
-        <v>0.69680851063829785</v>
+        <v>0.77931034482758621</v>
       </c>
       <c r="J25">
-        <v>0.67368421052631577</v>
+        <v>0.77372262773722633</v>
       </c>
       <c r="K25">
-        <v>0.71022727272727271</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="L25">
-        <v>0.65789473684210531</v>
+        <v>0.74657534246575341</v>
       </c>
       <c r="M25">
-        <v>0.71657754010695185</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="N25">
-        <v>0.68717948717948718</v>
+        <v>0.75172413793103443</v>
       </c>
       <c r="O25">
-        <v>0.75</v>
+        <v>0.8014184397163121</v>
       </c>
       <c r="P25">
-        <v>0.609375</v>
+        <v>0.63265306122448983</v>
       </c>
       <c r="Q25">
-        <v>0.77647058823529413</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="R25">
-        <v>0.72619047619047616</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="S25">
-        <v>0.57627118644067798</v>
+        <v>0.6</v>
       </c>
       <c r="T25">
-        <v>0.75531914893617025</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="U25">
-        <v>0.78378378378378377</v>
+        <v>0.81746031746031744</v>
       </c>
       <c r="V25">
-        <v>0.76530612244897955</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="W25">
-        <v>0.74725274725274726</v>
+        <v>0.81379310344827582</v>
       </c>
       <c r="X25">
-        <v>0.75647668393782386</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.7134831460674157</v>
+        <v>0.81560283687943258</v>
       </c>
       <c r="AA25">
-        <v>0.70833333333333337</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="AB25">
-        <v>0.64615384615384619</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="AC25">
-        <v>0.70652173913043481</v>
+        <v>0.8</v>
       </c>
       <c r="AD25">
-        <v>0.64150943396226412</v>
+        <v>0.59836065573770492</v>
       </c>
       <c r="AE25">
-        <v>0.69387755102040816</v>
+        <v>0.73287671232876717</v>
       </c>
       <c r="AF25">
-        <v>0.70873786407766992</v>
+        <v>0.74390243902439024</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -2934,97 +2934,97 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.75</v>
+        <v>0.79562043795620441</v>
       </c>
       <c r="C26">
-        <v>0.7289719626168224</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="D26">
-        <v>0.7232142857142857</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="E26">
-        <v>0.73786407766990292</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="F26">
-        <v>0.71153846153846156</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="G26">
-        <v>0.71296296296296291</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="H26">
-        <v>0.72549019607843135</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="I26">
-        <v>0.74407582938388628</v>
+        <v>0.8</v>
       </c>
       <c r="J26">
-        <v>0.7277227722772277</v>
+        <v>0.75177304964539005</v>
       </c>
       <c r="K26">
-        <v>0.73737373737373735</v>
+        <v>0.81021897810218979</v>
       </c>
       <c r="L26">
-        <v>0.7009345794392523</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="M26">
-        <v>0.71014492753623193</v>
+        <v>0.73376623376623373</v>
       </c>
       <c r="N26">
-        <v>0.72558139534883725</v>
+        <v>0.76774193548387093</v>
       </c>
       <c r="O26">
-        <v>0.68527918781725883</v>
+        <v>0.73049645390070927</v>
       </c>
       <c r="P26">
-        <v>0.61395348837209307</v>
+        <v>0.61783439490445857</v>
       </c>
       <c r="Q26">
-        <v>0.71859296482412061</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="R26">
-        <v>0.7142857142857143</v>
+        <v>0.76229508196721307</v>
       </c>
       <c r="S26">
-        <v>0.62694300518134716</v>
+        <v>0.66935483870967738</v>
       </c>
       <c r="T26">
-        <v>0.75714285714285712</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="U26">
-        <v>0.75480769230769229</v>
+        <v>0.79562043795620441</v>
       </c>
       <c r="V26">
-        <v>0.72146118721461183</v>
+        <v>0.76433121019108285</v>
       </c>
       <c r="W26">
-        <v>0.72864321608040206</v>
+        <v>0.76027397260273977</v>
       </c>
       <c r="X26">
-        <v>0.76525821596244137</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="Y26">
-        <v>0.7134831460674157</v>
+        <v>0.81560283687943258</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.74528301886792447</v>
+        <v>0.79605263157894735</v>
       </c>
       <c r="AB26">
-        <v>0.69444444444444442</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="AC26">
-        <v>0.73170731707317072</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="AD26">
-        <v>0.56976744186046513</v>
+        <v>0.58196721311475408</v>
       </c>
       <c r="AE26">
-        <v>0.70776255707762559</v>
+        <v>0.73717948717948723</v>
       </c>
       <c r="AF26">
-        <v>0.7</v>
+        <v>0.75531914893617025</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3032,97 +3032,97 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.91588785046728971</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="C27">
-        <v>0.76363636363636367</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="D27">
-        <v>0.66086956521739126</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="E27">
-        <v>0.70754716981132071</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="F27">
-        <v>0.67592592592592593</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="G27">
-        <v>0.86842105263157898</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="H27">
-        <v>0.80180180180180183</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="I27">
-        <v>0.71052631578947367</v>
+        <v>0.74534161490683226</v>
       </c>
       <c r="J27">
-        <v>0.87155963302752293</v>
+        <v>0.89436619718309862</v>
       </c>
       <c r="K27">
-        <v>0.89302325581395348</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="L27">
-        <v>0.78787878787878785</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="M27">
-        <v>0.73542600896860988</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="N27">
-        <v>0.75431034482758619</v>
+        <v>0.77018633540372672</v>
       </c>
       <c r="O27">
-        <v>0.863849765258216</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P27">
-        <v>0.5213675213675214</v>
+        <v>0.54601226993865026</v>
       </c>
       <c r="Q27">
-        <v>0.8423645320197044</v>
+        <v>0.82876712328767121</v>
       </c>
       <c r="R27">
-        <v>0.88292682926829269</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="S27">
-        <v>0.58373205741626799</v>
+        <v>0.62015503875968991</v>
       </c>
       <c r="T27">
-        <v>0.88495575221238942</v>
+        <v>0.88079470198675491</v>
       </c>
       <c r="U27">
-        <v>0.7589285714285714</v>
+        <v>0.80419580419580416</v>
       </c>
       <c r="V27">
-        <v>0.79148936170212769</v>
+        <v>0.81595092024539873</v>
       </c>
       <c r="W27">
-        <v>0.91162790697674423</v>
+        <v>0.875</v>
       </c>
       <c r="X27">
-        <v>0.82456140350877194</v>
+        <v>0.86451612903225805</v>
       </c>
       <c r="Y27">
-        <v>0.70833333333333337</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="Z27">
-        <v>0.74528301886792447</v>
+        <v>0.79605263157894735</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.69396551724137934</v>
+        <v>0.71875</v>
       </c>
       <c r="AC27">
-        <v>0.92760180995475117</v>
+        <v>0.89937106918238996</v>
       </c>
       <c r="AD27">
-        <v>0.52127659574468088</v>
+        <v>0.55118110236220474</v>
       </c>
       <c r="AE27">
-        <v>0.70085470085470081</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="AF27">
-        <v>0.81578947368421051</v>
+        <v>0.82105263157894737</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -3130,97 +3130,97 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.67741935483870963</v>
+        <v>0.6875</v>
       </c>
       <c r="C28">
-        <v>0.82727272727272727</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="D28">
-        <v>0.76068376068376065</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="E28">
-        <v>0.76635514018691586</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="F28">
-        <v>0.78181818181818186</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="G28">
-        <v>0.66371681415929207</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="H28">
-        <v>0.70454545454545459</v>
+        <v>0.72955974842767291</v>
       </c>
       <c r="I28">
-        <v>0.78602620087336239</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="J28">
-        <v>0.70588235294117652</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="K28">
-        <v>0.68544600938967137</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="L28">
-        <v>0.74568965517241381</v>
+        <v>0.72121212121212119</v>
       </c>
       <c r="M28">
-        <v>0.77333333333333332</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N28">
-        <v>0.77542372881355937</v>
+        <v>0.76219512195121952</v>
       </c>
       <c r="O28">
-        <v>0.70560747663551404</v>
+        <v>0.70945945945945943</v>
       </c>
       <c r="P28">
-        <v>0.67094017094017089</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="Q28">
-        <v>0.64563106796116509</v>
+        <v>0.65540540540540537</v>
       </c>
       <c r="R28">
-        <v>0.67487684729064035</v>
+        <v>0.70769230769230773</v>
       </c>
       <c r="S28">
-        <v>0.67772511848341233</v>
+        <v>0.75</v>
       </c>
       <c r="T28">
-        <v>0.67248908296943233</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="U28">
-        <v>0.75221238938053092</v>
+        <v>0.77241379310344827</v>
       </c>
       <c r="V28">
-        <v>0.69747899159663862</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="W28">
-        <v>0.64651162790697669</v>
+        <v>0.67096774193548392</v>
       </c>
       <c r="X28">
-        <v>0.67099567099567103</v>
+        <v>0.70063694267515919</v>
       </c>
       <c r="Y28">
-        <v>0.64615384615384619</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="Z28">
-        <v>0.69444444444444442</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="AA28">
-        <v>0.69396551724137934</v>
+        <v>0.71875</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.68468468468468469</v>
+        <v>0.69753086419753085</v>
       </c>
       <c r="AD28">
-        <v>0.69473684210526321</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="AE28">
-        <v>0.76793248945147674</v>
+        <v>0.79268292682926833</v>
       </c>
       <c r="AF28">
-        <v>0.74137931034482762</v>
+        <v>0.76595744680851063</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -3228,97 +3228,97 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.92270531400966183</v>
+        <v>0.88811188811188813</v>
       </c>
       <c r="C29">
-        <v>0.73786407766990292</v>
+        <v>0.68478260869565222</v>
       </c>
       <c r="D29">
-        <v>0.65420560747663548</v>
+        <v>0.64130434782608692</v>
       </c>
       <c r="E29">
-        <v>0.69696969696969702</v>
+        <v>0.71590909090909094</v>
       </c>
       <c r="F29">
-        <v>0.65346534653465349</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="G29">
-        <v>0.89719626168224298</v>
+        <v>0.88043478260869568</v>
       </c>
       <c r="H29">
-        <v>0.82464454976303314</v>
+        <v>0.83647798742138368</v>
       </c>
       <c r="I29">
-        <v>0.72398190045248867</v>
+        <v>0.76073619631901845</v>
       </c>
       <c r="J29">
-        <v>0.88516746411483249</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="K29">
-        <v>0.87745098039215685</v>
+        <v>0.81690140845070425</v>
       </c>
       <c r="L29">
+        <v>0.79268292682926833</v>
+      </c>
+      <c r="M29">
+        <v>0.74534161490683226</v>
+      </c>
+      <c r="N29">
+        <v>0.76687116564417179</v>
+      </c>
+      <c r="O29">
+        <v>0.85810810810810811</v>
+      </c>
+      <c r="P29">
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="Q29">
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="R29">
+        <v>0.91538461538461535</v>
+      </c>
+      <c r="S29">
+        <v>0.59541984732824427</v>
+      </c>
+      <c r="T29">
+        <v>0.84313725490196079</v>
+      </c>
+      <c r="U29">
+        <v>0.81118881118881114</v>
+      </c>
+      <c r="V29">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="W29">
+        <v>0.92258064516129035</v>
+      </c>
+      <c r="X29">
+        <v>0.87820512820512819</v>
+      </c>
+      <c r="Y29">
         <v>0.8</v>
       </c>
-      <c r="M29">
-        <v>0.74528301886792447</v>
-      </c>
-      <c r="N29">
-        <v>0.74439461883408076</v>
-      </c>
-      <c r="O29">
-        <v>0.84653465346534651</v>
-      </c>
-      <c r="P29">
-        <v>0.5112107623318386</v>
-      </c>
-      <c r="Q29">
-        <v>0.82741116751269039</v>
-      </c>
-      <c r="R29">
-        <v>0.92893401015228427</v>
-      </c>
-      <c r="S29">
-        <v>0.57711442786069655</v>
-      </c>
-      <c r="T29">
-        <v>0.86046511627906974</v>
-      </c>
-      <c r="U29">
-        <v>0.77830188679245282</v>
-      </c>
-      <c r="V29">
-        <v>0.78125</v>
-      </c>
-      <c r="W29">
-        <v>0.91304347826086951</v>
-      </c>
-      <c r="X29">
-        <v>0.84331797235023043</v>
-      </c>
-      <c r="Y29">
-        <v>0.70652173913043481</v>
-      </c>
       <c r="Z29">
-        <v>0.73170731707317072</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="AA29">
-        <v>0.92760180995475117</v>
+        <v>0.89937106918238996</v>
       </c>
       <c r="AB29">
-        <v>0.68468468468468469</v>
+        <v>0.69753086419753085</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>0.52459016393442626</v>
+        <v>0.56488549618320616</v>
       </c>
       <c r="AE29">
-        <v>0.6830357142857143</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="AF29">
-        <v>0.81308411214953269</v>
+        <v>0.78494623655913975</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -3326,97 +3326,97 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.4885057471264368</v>
+        <v>0.48695652173913045</v>
       </c>
       <c r="C30">
-        <v>0.759493670886076</v>
+        <v>0.75384615384615383</v>
       </c>
       <c r="D30">
-        <v>0.7857142857142857</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="E30">
-        <v>0.74358974358974361</v>
+        <v>0.71875</v>
       </c>
       <c r="F30">
-        <v>0.759493670886076</v>
+        <v>0.78688524590163933</v>
       </c>
       <c r="G30">
-        <v>0.61904761904761907</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="H30">
-        <v>0.54802259887005644</v>
+        <v>0.59842519685039375</v>
       </c>
       <c r="I30">
-        <v>0.64324324324324322</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="K30">
-        <v>0.50289017341040465</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>0.52659574468085102</v>
+        <v>0.62595419847328249</v>
       </c>
       <c r="M30">
-        <v>0.67597765363128492</v>
+        <v>0.671875</v>
       </c>
       <c r="N30">
-        <v>0.63492063492063489</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="O30">
-        <v>0.55932203389830504</v>
+        <v>0.6</v>
       </c>
       <c r="P30">
-        <v>0.76190476190476186</v>
+        <v>0.77862595419847325</v>
       </c>
       <c r="Q30">
-        <v>0.54037267080745344</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R30">
-        <v>0.54705882352941182</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="S30">
-        <v>0.72</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="T30">
-        <v>0.55978260869565222</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="U30">
-        <v>0.60555555555555551</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="V30">
-        <v>0.62631578947368416</v>
+        <v>0.58015267175572516</v>
       </c>
       <c r="W30">
-        <v>0.51630434782608692</v>
+        <v>0.56923076923076921</v>
       </c>
       <c r="X30">
-        <v>0.5376344086021505</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y30">
-        <v>0.64150943396226412</v>
+        <v>0.59836065573770492</v>
       </c>
       <c r="Z30">
-        <v>0.56976744186046513</v>
+        <v>0.58196721311475408</v>
       </c>
       <c r="AA30">
-        <v>0.52127659574468088</v>
+        <v>0.55118110236220474</v>
       </c>
       <c r="AB30">
-        <v>0.69473684210526321</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="AC30">
-        <v>0.52459016393442626</v>
+        <v>0.56488549618320616</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0.69841269841269837</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="AF30">
-        <v>0.66265060240963858</v>
+        <v>0.62121212121212122</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3424,97 +3424,97 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.66210045662100458</v>
+        <v>0.70547945205479456</v>
       </c>
       <c r="C31">
-        <v>0.8214285714285714</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="D31">
-        <v>0.80508474576271183</v>
+        <v>0.77894736842105261</v>
       </c>
       <c r="E31">
-        <v>0.74311926605504586</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F31">
-        <v>0.78378378378378377</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="G31">
-        <v>0.71304347826086956</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H31">
-        <v>0.71300448430493268</v>
+        <v>0.80124223602484468</v>
       </c>
       <c r="I31">
-        <v>0.70869565217391306</v>
+        <v>0.80606060606060603</v>
       </c>
       <c r="J31">
-        <v>0.68468468468468469</v>
+        <v>0.73793103448275865</v>
       </c>
       <c r="K31">
-        <v>0.66046511627906979</v>
+        <v>0.71724137931034482</v>
       </c>
       <c r="L31">
-        <v>0.69658119658119655</v>
+        <v>0.76506024096385539</v>
       </c>
       <c r="M31">
-        <v>0.80701754385964908</v>
+        <v>0.84146341463414631</v>
       </c>
       <c r="N31">
-        <v>0.72995780590717296</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="O31">
-        <v>0.72350230414746541</v>
+        <v>0.78</v>
       </c>
       <c r="P31">
-        <v>0.74576271186440679</v>
+        <v>0.74251497005988021</v>
       </c>
       <c r="Q31">
-        <v>0.70813397129186606</v>
+        <v>0.76</v>
       </c>
       <c r="R31">
-        <v>0.70048309178743962</v>
+        <v>0.74045801526717558</v>
       </c>
       <c r="S31">
-        <v>0.64928909952606639</v>
+        <v>0.72180451127819545</v>
       </c>
       <c r="T31">
-        <v>0.75757575757575757</v>
+        <v>0.79354838709677422</v>
       </c>
       <c r="U31">
-        <v>0.69868995633187769</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="V31">
-        <v>0.73750000000000004</v>
+        <v>0.70658682634730541</v>
       </c>
       <c r="W31">
-        <v>0.68055555555555558</v>
+        <v>0.70512820512820518</v>
       </c>
       <c r="X31">
-        <v>0.71673819742489275</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="Y31">
-        <v>0.69387755102040816</v>
+        <v>0.73287671232876717</v>
       </c>
       <c r="Z31">
-        <v>0.70776255707762559</v>
+        <v>0.73717948717948723</v>
       </c>
       <c r="AA31">
-        <v>0.70085470085470081</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="AB31">
-        <v>0.76793248945147674</v>
+        <v>0.79268292682926833</v>
       </c>
       <c r="AC31">
-        <v>0.6830357142857143</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="AD31">
-        <v>0.69841269841269837</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0.81196581196581197</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -3522,94 +3522,94 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.83783783783783783</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="C32">
-        <v>0.82727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
-        <v>0.76923076923076927</v>
+        <v>0.71578947368421053</v>
       </c>
       <c r="E32">
-        <v>0.74766355140186913</v>
+        <v>0.78021978021978022</v>
       </c>
       <c r="F32">
-        <v>0.76576576576576572</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="G32">
-        <v>0.83185840707964598</v>
+        <v>0.86315789473684212</v>
       </c>
       <c r="H32">
-        <v>0.79629629629629628</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="I32">
-        <v>0.70909090909090911</v>
+        <v>0.75789473684210529</v>
       </c>
       <c r="J32">
-        <v>0.79411764705882348</v>
+        <v>0.85542168674698793</v>
       </c>
       <c r="K32">
-        <v>0.76635514018691586</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="L32">
-        <v>0.7567567567567568</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="M32">
-        <v>0.81818181818181823</v>
+        <v>0.84946236559139787</v>
       </c>
       <c r="N32">
-        <v>0.78947368421052633</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="O32">
-        <v>0.81904761904761902</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="P32">
-        <v>0.63716814159292035</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q32">
-        <v>0.80392156862745101</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="R32">
-        <v>0.86274509803921573</v>
+        <v>0.83529411764705885</v>
       </c>
       <c r="S32">
-        <v>0.60416666666666663</v>
+        <v>0.60810810810810811</v>
       </c>
       <c r="T32">
-        <v>0.82300884955752207</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="U32">
-        <v>0.75229357798165142</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="V32">
-        <v>0.84615384615384615</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W32">
-        <v>0.81632653061224492</v>
+        <v>0.80232558139534882</v>
       </c>
       <c r="X32">
-        <v>0.81981981981981977</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="Y32">
-        <v>0.70873786407766992</v>
+        <v>0.74390243902439024</v>
       </c>
       <c r="Z32">
-        <v>0.7</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="AA32">
-        <v>0.81578947368421051</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="AB32">
-        <v>0.74137931034482762</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="AC32">
-        <v>0.81308411214953269</v>
+        <v>0.78494623655913975</v>
       </c>
       <c r="AD32">
-        <v>0.66265060240963858</v>
+        <v>0.62121212121212122</v>
       </c>
       <c r="AE32">
-        <v>0.81196581196581197</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AF32">
         <v>1</v>
